--- a/BeatTheRobot_4/season_predictions_23_24.xlsx
+++ b/BeatTheRobot_4/season_predictions_23_24.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="975">
   <si>
     <t>player_id</t>
   </si>
@@ -1780,15 +1780,6 @@
     <t>Fc Luzern</t>
   </si>
   <si>
-    <t>Wolanin</t>
-  </si>
-  <si>
-    <t>wolanin@bluewin.ch</t>
-  </si>
-  <si>
-    <t>@wolanin1983</t>
-  </si>
-  <si>
     <t>St</t>
   </si>
   <si>
@@ -2327,6 +2318,624 @@
   </si>
   <si>
     <t>@le_saint_rosti</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>tate83@gmail.com</t>
+  </si>
+  <si>
+    <t>@tate83</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Cummings</t>
+  </si>
+  <si>
+    <t>Rosscummings@hotmail.com</t>
+  </si>
+  <si>
+    <t>@TheSwissBankie</t>
+  </si>
+  <si>
+    <t>Aranyc</t>
+  </si>
+  <si>
+    <t>Sapat</t>
+  </si>
+  <si>
+    <t>e.knuth@gmx.ch</t>
+  </si>
+  <si>
+    <t>Rene</t>
+  </si>
+  <si>
+    <t>Roediger</t>
+  </si>
+  <si>
+    <t>djsojus@gmail.com</t>
+  </si>
+  <si>
+    <t>@djsojus</t>
+  </si>
+  <si>
+    <t>Loic</t>
+  </si>
+  <si>
+    <t>Rosay</t>
+  </si>
+  <si>
+    <t>loicblink182@yahoo.fr</t>
+  </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t>Lingani</t>
+  </si>
+  <si>
+    <t>schaerer98@gmail.com</t>
+  </si>
+  <si>
+    <t>Hodel</t>
+  </si>
+  <si>
+    <t>simonhodel@gmx.ch</t>
+  </si>
+  <si>
+    <t>Hodler</t>
+  </si>
+  <si>
+    <t>phodler1@gmail.com</t>
+  </si>
+  <si>
+    <t>@HodlerPascal</t>
+  </si>
+  <si>
+    <t>paolo</t>
+  </si>
+  <si>
+    <t>laurenti</t>
+  </si>
+  <si>
+    <t>plaurenti17@gmail.com</t>
+  </si>
+  <si>
+    <t>@pao_laurenti</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Chetelat</t>
+  </si>
+  <si>
+    <t>chris_suisse@hotmail.com</t>
+  </si>
+  <si>
+    <t>@suisse_chris</t>
+  </si>
+  <si>
+    <t>Chételat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeremy.chetelat@outlook.com </t>
+  </si>
+  <si>
+    <t>@Astrein_717</t>
+  </si>
+  <si>
+    <t>20x Swiss Champ, UECL halffinalist…</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>Genicot</t>
+  </si>
+  <si>
+    <t>guygenicot@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@MBCBetting </t>
+  </si>
+  <si>
+    <t>Pierpaolo</t>
+  </si>
+  <si>
+    <t>Ranieri</t>
+  </si>
+  <si>
+    <t>paolozito90@gmail.com</t>
+  </si>
+  <si>
+    <t>Cyr</t>
+  </si>
+  <si>
+    <t>Mel</t>
+  </si>
+  <si>
+    <t>abcdefghij@gmx.ch</t>
+  </si>
+  <si>
+    <t>Eugen</t>
+  </si>
+  <si>
+    <t>eugen.birchler@gmail.com</t>
+  </si>
+  <si>
+    <t>@BirchlerEugen</t>
+  </si>
+  <si>
+    <t>Thibaut</t>
+  </si>
+  <si>
+    <t>Barone</t>
+  </si>
+  <si>
+    <t>thibaut.l.barone@gmail.com</t>
+  </si>
+  <si>
+    <t>Maxime</t>
+  </si>
+  <si>
+    <t>Linder</t>
+  </si>
+  <si>
+    <t>maximelinder@yahoo.fr</t>
+  </si>
+  <si>
+    <t>FC Lausanne-Sport</t>
+  </si>
+  <si>
+    <t>Bartosch</t>
+  </si>
+  <si>
+    <t>raphybasel@gmail.com</t>
+  </si>
+  <si>
+    <t>@fe4r_jkr</t>
+  </si>
+  <si>
+    <t>Fc Basel 1893</t>
+  </si>
+  <si>
+    <t>Jean-Luc Berger</t>
+  </si>
+  <si>
+    <t>jlucenvacance@gmail.com</t>
+  </si>
+  <si>
+    <t>Greber</t>
+  </si>
+  <si>
+    <t>chgreber@bluewin.ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">André </t>
+  </si>
+  <si>
+    <t>Bortis</t>
+  </si>
+  <si>
+    <t>andre.bortis@hotmail.ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garrinchas </t>
+  </si>
+  <si>
+    <t>Schuh</t>
+  </si>
+  <si>
+    <t>daebader@hotmail.com</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>diegoalanesteban@gmail.com</t>
+  </si>
+  <si>
+    <t>@diego_le_rouge</t>
+  </si>
+  <si>
+    <t>Janic</t>
+  </si>
+  <si>
+    <t>Wittwer</t>
+  </si>
+  <si>
+    <t>janic.wittwer@bluewin.ch</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Blanc</t>
+  </si>
+  <si>
+    <t>joelblanc@hotmail.ch</t>
+  </si>
+  <si>
+    <t>@Rasta_Jol</t>
+  </si>
+  <si>
+    <t>Reto</t>
+  </si>
+  <si>
+    <t>Lanz</t>
+  </si>
+  <si>
+    <t>kiripu@bluewin.ch</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Cruso</t>
+  </si>
+  <si>
+    <t>adebajor_raphael@hotmail.com</t>
+  </si>
+  <si>
+    <t>cedricchristian218@gmail.com</t>
+  </si>
+  <si>
+    <t>@BVBTalente</t>
+  </si>
+  <si>
+    <t>Reut</t>
+  </si>
+  <si>
+    <t>stefan.reut@hotmail.com</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Broger</t>
+  </si>
+  <si>
+    <t>b_broger@gmx.ch</t>
+  </si>
+  <si>
+    <t>Salvisberg</t>
+  </si>
+  <si>
+    <t>marc-salvi@hotmail.com</t>
+  </si>
+  <si>
+    <t>@BaselStar</t>
+  </si>
+  <si>
+    <t>Christoph</t>
+  </si>
+  <si>
+    <t>Blum</t>
+  </si>
+  <si>
+    <t>ch.blum@gmx.ch</t>
+  </si>
+  <si>
+    <t>Kainz</t>
+  </si>
+  <si>
+    <t>mathias327@gmail.com</t>
+  </si>
+  <si>
+    <t>@MathiasKainz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chet </t>
+  </si>
+  <si>
+    <t>noahchetelat4@gmail.com</t>
+  </si>
+  <si>
+    <t>Stüber</t>
+  </si>
+  <si>
+    <t>ma_stue@hotmail.com</t>
+  </si>
+  <si>
+    <t>@blaupeter42</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>Dober</t>
+  </si>
+  <si>
+    <t>moerud84@gmail.com</t>
+  </si>
+  <si>
+    <t>@easymaurice_</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Furrer</t>
+  </si>
+  <si>
+    <t>furrerdani@outlook.com</t>
+  </si>
+  <si>
+    <t>Levi</t>
+  </si>
+  <si>
+    <t>Keller</t>
+  </si>
+  <si>
+    <t>levi@de-wild.ch</t>
+  </si>
+  <si>
+    <t>Ruh</t>
+  </si>
+  <si>
+    <t>ruh@ondivade.ch</t>
+  </si>
+  <si>
+    <t>@ondivade</t>
+  </si>
+  <si>
+    <t>Santo</t>
+  </si>
+  <si>
+    <t>Baffo</t>
+  </si>
+  <si>
+    <t>sgarbely@hotmail.com</t>
+  </si>
+  <si>
+    <t>@santo_baffo</t>
+  </si>
+  <si>
+    <t>Thibault</t>
+  </si>
+  <si>
+    <t>Wyrsch</t>
+  </si>
+  <si>
+    <t>thibaultwyrsch@gmail.com</t>
+  </si>
+  <si>
+    <t>@RandomEpicName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jérôme </t>
+  </si>
+  <si>
+    <t>Dayer</t>
+  </si>
+  <si>
+    <t>jerome.dayer@gmail.com</t>
+  </si>
+  <si>
+    <t>chnoch@gmail.com</t>
+  </si>
+  <si>
+    <t>Iellamo</t>
+  </si>
+  <si>
+    <t>david@digitalminds.ch</t>
+  </si>
+  <si>
+    <t>Apothéloz</t>
+  </si>
+  <si>
+    <t>luca.apoth@gmail.com</t>
+  </si>
+  <si>
+    <t>Sansonnens</t>
+  </si>
+  <si>
+    <t>brian.sansonnens96@gmail.com</t>
+  </si>
+  <si>
+    <t>@BrianSanso</t>
+  </si>
+  <si>
+    <t>Renzo</t>
+  </si>
+  <si>
+    <t>Rettenmund</t>
+  </si>
+  <si>
+    <t>renzo.rettenmund@gmail.com</t>
+  </si>
+  <si>
+    <t>@redgyreymond</t>
+  </si>
+  <si>
+    <t>nils</t>
+  </si>
+  <si>
+    <t>sommer</t>
+  </si>
+  <si>
+    <t>nils.sommer@gmx.ch</t>
+  </si>
+  <si>
+    <t>joao</t>
+  </si>
+  <si>
+    <t>venturelli</t>
+  </si>
+  <si>
+    <t>jmvgroh@protonmail.ch</t>
+  </si>
+  <si>
+    <t>@joaomventurelli</t>
+  </si>
+  <si>
+    <t>Aebi</t>
+  </si>
+  <si>
+    <t>david.aebi@icloud.com</t>
+  </si>
+  <si>
+    <t>gelbesparis</t>
+  </si>
+  <si>
+    <t>Renato</t>
+  </si>
+  <si>
+    <t>Eisenring</t>
+  </si>
+  <si>
+    <t>Re.eisenring@gmail.com</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Steiner</t>
+  </si>
+  <si>
+    <t>denis.steiner.ds@gmail.com</t>
+  </si>
+  <si>
+    <t>Valerio</t>
+  </si>
+  <si>
+    <t>Fabbri</t>
+  </si>
+  <si>
+    <t>Vfl011021@gmail.com</t>
+  </si>
+  <si>
+    <t>kokeshi</t>
+  </si>
+  <si>
+    <t>matthias.kokeshi@gmail.com</t>
+  </si>
+  <si>
+    <t>Kuoni</t>
+  </si>
+  <si>
+    <t>patrickkuoni95@msn.com</t>
+  </si>
+  <si>
+    <t>tiago.andresilva@outlook.com</t>
+  </si>
+  <si>
+    <t>@Tiago_240405</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Raz</t>
+  </si>
+  <si>
+    <t>ff.razinger@gmail.com</t>
+  </si>
+  <si>
+    <t>@razinger</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Mamié</t>
+  </si>
+  <si>
+    <t>robin@mamie.one</t>
+  </si>
+  <si>
+    <t>@robin_mamie</t>
+  </si>
+  <si>
+    <t>Adrien</t>
+  </si>
+  <si>
+    <t>Fluhmann</t>
+  </si>
+  <si>
+    <t>adrienfluhmann@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan </t>
+  </si>
+  <si>
+    <t>steinerryan54@gmail.com</t>
+  </si>
+  <si>
+    <t>@RyanSteiner17</t>
+  </si>
+  <si>
+    <t>Brandis</t>
+  </si>
+  <si>
+    <t>brandisj01@gmail.com</t>
+  </si>
+  <si>
+    <t>@jnthn410</t>
+  </si>
+  <si>
+    <t>FCB</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>There</t>
+  </si>
+  <si>
+    <t>reuter.tim@hotmail.com</t>
+  </si>
+  <si>
+    <t>Flavio</t>
+  </si>
+  <si>
+    <t>Tripoli</t>
+  </si>
+  <si>
+    <t>flaviotripoli@yahoo.fr</t>
+  </si>
+  <si>
+    <t>Carlo</t>
+  </si>
+  <si>
+    <t>Schwerin</t>
+  </si>
+  <si>
+    <t>korin@gmail.com</t>
+  </si>
+  <si>
+    <t>Conway</t>
+  </si>
+  <si>
+    <t>N.c.p.conway@gmail.com</t>
+  </si>
+  <si>
+    <t>@nicholasconway</t>
+  </si>
+  <si>
+    <t>Nathalie</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>sidyork@gmail.com</t>
+  </si>
+  <si>
+    <t>@PazzaNathy3</t>
+  </si>
+  <si>
+    <t>Köchli</t>
+  </si>
+  <si>
+    <t>pascalkoechli@gmail.com</t>
+  </si>
+  <si>
+    <t>@pascalkoechli</t>
   </si>
 </sst>
 </file>
@@ -2372,7 +2981,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -12238,13 +12847,13 @@
     </row>
     <row r="164">
       <c r="A164" s="4">
-        <v>177.0</v>
+        <v>178.0</v>
       </c>
       <c r="B164" s="5">
-        <v>45115.3673626948</v>
+        <v>45115.4150853015</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>589</v>
@@ -12256,40 +12865,40 @@
         <v>591</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="H164" s="4">
-        <v>72.0</v>
+        <v>82.0</v>
       </c>
       <c r="I164" s="4">
-        <v>51.0</v>
+        <v>61.0</v>
       </c>
       <c r="J164" s="4">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="K164" s="4">
-        <v>52.0</v>
+        <v>68.0</v>
       </c>
       <c r="L164" s="4">
-        <v>60.0</v>
+        <v>69.0</v>
       </c>
       <c r="M164" s="4">
-        <v>48.0</v>
+        <v>58.0</v>
       </c>
       <c r="N164" s="4">
-        <v>53.0</v>
+        <v>66.0</v>
       </c>
       <c r="O164" s="4">
-        <v>41.0</v>
+        <v>36.0</v>
       </c>
       <c r="P164" s="4">
-        <v>38.0</v>
+        <v>30.0</v>
       </c>
       <c r="Q164" s="4">
-        <v>47.0</v>
+        <v>40.0</v>
       </c>
       <c r="R164" s="4">
-        <v>54.0</v>
+        <v>26.0</v>
       </c>
       <c r="S164" s="4">
         <v>36.0</v>
@@ -12297,69 +12906,69 @@
     </row>
     <row r="165">
       <c r="A165" s="4">
-        <v>178.0</v>
+        <v>179.0</v>
       </c>
       <c r="B165" s="5">
-        <v>45115.4150853015</v>
+        <v>45115.4299126442</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>231</v>
+        <v>592</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>594</v>
+        <v>50</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H165" s="4">
-        <v>82.0</v>
+        <v>87.0</v>
       </c>
       <c r="I165" s="4">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="J165" s="4">
-        <v>76.0</v>
+        <v>50.0</v>
       </c>
       <c r="K165" s="4">
-        <v>68.0</v>
+        <v>58.0</v>
       </c>
       <c r="L165" s="4">
-        <v>69.0</v>
+        <v>52.0</v>
       </c>
       <c r="M165" s="4">
-        <v>58.0</v>
+        <v>44.0</v>
       </c>
       <c r="N165" s="4">
-        <v>66.0</v>
+        <v>65.0</v>
       </c>
       <c r="O165" s="4">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="P165" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="Q165" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="R165" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="S165" s="4">
         <v>30.0</v>
-      </c>
-      <c r="Q165" s="4">
-        <v>40.0</v>
-      </c>
-      <c r="R165" s="4">
-        <v>26.0</v>
-      </c>
-      <c r="S165" s="4">
-        <v>36.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="4">
-        <v>179.0</v>
+        <v>180.0</v>
       </c>
       <c r="B166" s="5">
-        <v>45115.4299126442</v>
+        <v>45115.4424206674</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>595</v>
@@ -12371,231 +12980,231 @@
         <v>597</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="H166" s="4">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="I166" s="4">
-        <v>62.0</v>
+        <v>52.0</v>
       </c>
       <c r="J166" s="4">
+        <v>68.0</v>
+      </c>
+      <c r="K166" s="4">
+        <v>71.0</v>
+      </c>
+      <c r="L166" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="M166" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="N166" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="O166" s="4">
         <v>50.0</v>
       </c>
-      <c r="K166" s="4">
-        <v>58.0</v>
-      </c>
-      <c r="L166" s="4">
-        <v>52.0</v>
-      </c>
-      <c r="M166" s="4">
+      <c r="P166" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="Q166" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="R166" s="4">
         <v>44.0</v>
       </c>
-      <c r="N166" s="4">
-        <v>65.0</v>
-      </c>
-      <c r="O166" s="4">
-        <v>37.0</v>
-      </c>
-      <c r="P166" s="4">
-        <v>47.0</v>
-      </c>
-      <c r="Q166" s="4">
-        <v>44.0</v>
-      </c>
-      <c r="R166" s="4">
-        <v>42.0</v>
-      </c>
       <c r="S166" s="4">
-        <v>30.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="4">
-        <v>180.0</v>
+        <v>181.0</v>
       </c>
       <c r="B167" s="5">
-        <v>45115.4424206674</v>
+        <v>45115.4774124388</v>
       </c>
       <c r="C167" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D167" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="E167" s="4" t="s">
         <v>599</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>600</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="H167" s="4">
-        <v>80.0</v>
+        <v>81.0</v>
       </c>
       <c r="I167" s="4">
-        <v>52.0</v>
+        <v>72.0</v>
       </c>
       <c r="J167" s="4">
         <v>68.0</v>
       </c>
       <c r="K167" s="4">
-        <v>71.0</v>
+        <v>69.0</v>
       </c>
       <c r="L167" s="4">
-        <v>59.0</v>
+        <v>76.0</v>
       </c>
       <c r="M167" s="4">
-        <v>52.0</v>
+        <v>79.0</v>
       </c>
       <c r="N167" s="4">
-        <v>58.0</v>
+        <v>85.0</v>
       </c>
       <c r="O167" s="4">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c r="P167" s="4">
-        <v>41.0</v>
+        <v>33.0</v>
       </c>
       <c r="Q167" s="4">
-        <v>48.0</v>
+        <v>92.0</v>
       </c>
       <c r="R167" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="S167" s="4">
         <v>44.0</v>
-      </c>
-      <c r="S167" s="4">
-        <v>38.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="4">
-        <v>181.0</v>
+        <v>182.0</v>
       </c>
       <c r="B168" s="5">
-        <v>45115.4774124388</v>
+        <v>45115.4832483856</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>490</v>
+        <v>138</v>
       </c>
       <c r="D168" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="E168" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="E168" s="4" t="s">
+      <c r="F168" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H168" s="4">
-        <v>81.0</v>
+        <v>67.0</v>
       </c>
       <c r="I168" s="4">
-        <v>72.0</v>
+        <v>46.0</v>
       </c>
       <c r="J168" s="4">
-        <v>68.0</v>
+        <v>64.0</v>
       </c>
       <c r="K168" s="4">
         <v>69.0</v>
       </c>
       <c r="L168" s="4">
-        <v>76.0</v>
+        <v>40.0</v>
       </c>
       <c r="M168" s="4">
-        <v>79.0</v>
+        <v>38.0</v>
       </c>
       <c r="N168" s="4">
-        <v>85.0</v>
+        <v>40.0</v>
       </c>
       <c r="O168" s="4">
-        <v>48.0</v>
+        <v>56.0</v>
       </c>
       <c r="P168" s="4">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
       <c r="Q168" s="4">
-        <v>92.0</v>
+        <v>41.0</v>
       </c>
       <c r="R168" s="4">
-        <v>51.0</v>
+        <v>41.0</v>
       </c>
       <c r="S168" s="4">
-        <v>44.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="4">
-        <v>182.0</v>
+        <v>183.0</v>
       </c>
       <c r="B169" s="5">
-        <v>45115.4832483856</v>
+        <v>45115.5000748037</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>138</v>
+        <v>603</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>605</v>
+        <v>26</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H169" s="4">
-        <v>67.0</v>
+        <v>82.0</v>
       </c>
       <c r="I169" s="4">
-        <v>46.0</v>
+        <v>71.0</v>
       </c>
       <c r="J169" s="4">
-        <v>64.0</v>
+        <v>75.0</v>
       </c>
       <c r="K169" s="4">
-        <v>69.0</v>
+        <v>59.0</v>
       </c>
       <c r="L169" s="4">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
       <c r="M169" s="4">
-        <v>38.0</v>
+        <v>55.0</v>
       </c>
       <c r="N169" s="4">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
       <c r="O169" s="4">
-        <v>56.0</v>
+        <v>75.0</v>
       </c>
       <c r="P169" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="Q169" s="4">
+        <v>82.0</v>
+      </c>
+      <c r="R169" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="S169" s="4">
         <v>24.0</v>
-      </c>
-      <c r="Q169" s="4">
-        <v>41.0</v>
-      </c>
-      <c r="R169" s="4">
-        <v>41.0</v>
-      </c>
-      <c r="S169" s="4">
-        <v>27.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="4">
-        <v>183.0</v>
+        <v>184.0</v>
       </c>
       <c r="B170" s="5">
-        <v>45115.5000748037</v>
+        <v>45115.5045111157</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>606</v>
@@ -12607,231 +13216,231 @@
         <v>608</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>26</v>
+        <v>609</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>37</v>
+        <v>610</v>
       </c>
       <c r="H170" s="4">
         <v>82.0</v>
       </c>
       <c r="I170" s="4">
-        <v>71.0</v>
+        <v>48.0</v>
       </c>
       <c r="J170" s="4">
-        <v>75.0</v>
+        <v>68.0</v>
       </c>
       <c r="K170" s="4">
-        <v>59.0</v>
+        <v>56.0</v>
       </c>
       <c r="L170" s="4">
-        <v>65.0</v>
+        <v>61.0</v>
       </c>
       <c r="M170" s="4">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="N170" s="4">
-        <v>65.0</v>
+        <v>53.0</v>
       </c>
       <c r="O170" s="4">
-        <v>75.0</v>
+        <v>46.0</v>
       </c>
       <c r="P170" s="4">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="Q170" s="4">
-        <v>82.0</v>
+        <v>44.0</v>
       </c>
       <c r="R170" s="4">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="S170" s="4">
-        <v>24.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="4">
-        <v>184.0</v>
+        <v>186.0</v>
       </c>
       <c r="B171" s="5">
-        <v>45115.5045111157</v>
+        <v>45115.5071923947</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>612</v>
+        <v>50</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H171" s="4">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
       <c r="I171" s="4">
-        <v>48.0</v>
+        <v>57.0</v>
       </c>
       <c r="J171" s="4">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="K171" s="4">
-        <v>56.0</v>
+        <v>65.0</v>
       </c>
       <c r="L171" s="4">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="M171" s="4">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="N171" s="4">
-        <v>53.0</v>
+        <v>59.0</v>
       </c>
       <c r="O171" s="4">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="P171" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="Q171" s="4">
         <v>37.0</v>
       </c>
-      <c r="Q171" s="4">
-        <v>44.0</v>
-      </c>
       <c r="R171" s="4">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
       <c r="S171" s="4">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="4">
-        <v>186.0</v>
+        <v>187.0</v>
       </c>
       <c r="B172" s="5">
-        <v>45115.5071923947</v>
+        <v>45115.6039422856</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>50</v>
+        <v>618</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>617</v>
+        <v>287</v>
       </c>
       <c r="H172" s="4">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
       <c r="I172" s="4">
-        <v>57.0</v>
+        <v>55.0</v>
       </c>
       <c r="J172" s="4">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
       <c r="K172" s="4">
-        <v>65.0</v>
+        <v>56.0</v>
       </c>
       <c r="L172" s="4">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="M172" s="4">
-        <v>50.0</v>
+        <v>46.0</v>
       </c>
       <c r="N172" s="4">
         <v>59.0</v>
       </c>
       <c r="O172" s="4">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="P172" s="4">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
       <c r="Q172" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="R172" s="4">
         <v>37.0</v>
       </c>
-      <c r="R172" s="4">
-        <v>32.0</v>
-      </c>
       <c r="S172" s="4">
-        <v>39.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="4">
-        <v>187.0</v>
+        <v>188.0</v>
       </c>
       <c r="B173" s="5">
-        <v>45115.6039422856</v>
+        <v>45115.6918223051</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>621</v>
+        <v>26</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>287</v>
+        <v>7</v>
       </c>
       <c r="H173" s="4">
-        <v>80.0</v>
+        <v>75.0</v>
       </c>
       <c r="I173" s="4">
-        <v>55.0</v>
+        <v>53.0</v>
       </c>
       <c r="J173" s="4">
-        <v>73.0</v>
+        <v>66.0</v>
       </c>
       <c r="K173" s="4">
-        <v>56.0</v>
+        <v>63.0</v>
       </c>
       <c r="L173" s="4">
-        <v>64.0</v>
+        <v>58.0</v>
       </c>
       <c r="M173" s="4">
-        <v>46.0</v>
+        <v>51.0</v>
       </c>
       <c r="N173" s="4">
-        <v>59.0</v>
+        <v>58.0</v>
       </c>
       <c r="O173" s="4">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="P173" s="4">
+        <v>78.0</v>
+      </c>
+      <c r="Q173" s="4">
         <v>34.0</v>
       </c>
-      <c r="Q173" s="4">
-        <v>49.0</v>
-      </c>
       <c r="R173" s="4">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="S173" s="4">
-        <v>31.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="4">
-        <v>188.0</v>
+        <v>189.0</v>
       </c>
       <c r="B174" s="5">
-        <v>45115.6918223051</v>
+        <v>45115.7217304622</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>622</v>
@@ -12843,293 +13452,293 @@
         <v>624</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>26</v>
+        <v>625</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H174" s="4">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
       <c r="I174" s="4">
-        <v>53.0</v>
+        <v>57.0</v>
       </c>
       <c r="J174" s="4">
-        <v>66.0</v>
+        <v>56.0</v>
       </c>
       <c r="K174" s="4">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
       <c r="L174" s="4">
-        <v>58.0</v>
+        <v>55.0</v>
       </c>
       <c r="M174" s="4">
-        <v>51.0</v>
+        <v>56.0</v>
       </c>
       <c r="N174" s="4">
-        <v>58.0</v>
+        <v>56.0</v>
       </c>
       <c r="O174" s="4">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="P174" s="4">
-        <v>78.0</v>
+        <v>42.0</v>
       </c>
       <c r="Q174" s="4">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
       <c r="R174" s="4">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="S174" s="4">
-        <v>43.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="4">
-        <v>189.0</v>
+        <v>190.0</v>
       </c>
       <c r="B175" s="5">
-        <v>45115.7217304622</v>
+        <v>45115.8312694044</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="H175" s="4">
-        <v>82.0</v>
+        <v>83.0</v>
       </c>
       <c r="I175" s="4">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
       <c r="J175" s="4">
-        <v>56.0</v>
+        <v>77.0</v>
       </c>
       <c r="K175" s="4">
-        <v>57.0</v>
+        <v>62.0</v>
       </c>
       <c r="L175" s="4">
-        <v>55.0</v>
+        <v>71.0</v>
       </c>
       <c r="M175" s="4">
-        <v>56.0</v>
+        <v>42.0</v>
       </c>
       <c r="N175" s="4">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
       <c r="O175" s="4">
-        <v>49.0</v>
+        <v>35.0</v>
       </c>
       <c r="P175" s="4">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="Q175" s="4">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="R175" s="4">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="S175" s="4">
-        <v>36.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="4">
-        <v>190.0</v>
+        <v>193.0</v>
       </c>
       <c r="B176" s="5">
-        <v>45115.8312694044</v>
+        <v>45116.2252813457</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>50</v>
+        <v>634</v>
       </c>
       <c r="H176" s="4">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
       <c r="I176" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="J176" s="4">
         <v>54.0</v>
       </c>
-      <c r="J176" s="4">
-        <v>77.0</v>
-      </c>
       <c r="K176" s="4">
-        <v>62.0</v>
+        <v>48.0</v>
       </c>
       <c r="L176" s="4">
-        <v>71.0</v>
+        <v>55.0</v>
       </c>
       <c r="M176" s="4">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="N176" s="4">
-        <v>58.0</v>
+        <v>45.0</v>
       </c>
       <c r="O176" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="P176" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="Q176" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="R176" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="S176" s="4">
         <v>35.0</v>
-      </c>
-      <c r="P176" s="4">
-        <v>40.0</v>
-      </c>
-      <c r="Q176" s="4">
-        <v>47.0</v>
-      </c>
-      <c r="R176" s="4">
-        <v>41.0</v>
-      </c>
-      <c r="S176" s="4">
-        <v>27.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="4">
-        <v>193.0</v>
+        <v>194.0</v>
       </c>
       <c r="B177" s="5">
-        <v>45116.2252813457</v>
+        <v>45116.3204499751</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>637</v>
+        <v>7</v>
       </c>
       <c r="H177" s="4">
-        <v>78.0</v>
+        <v>85.0</v>
       </c>
       <c r="I177" s="4">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
       <c r="J177" s="4">
-        <v>54.0</v>
+        <v>63.0</v>
       </c>
       <c r="K177" s="4">
-        <v>48.0</v>
+        <v>61.0</v>
       </c>
       <c r="L177" s="4">
         <v>55.0</v>
       </c>
       <c r="M177" s="4">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="N177" s="4">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="O177" s="4">
-        <v>48.0</v>
+        <v>42.0</v>
       </c>
       <c r="P177" s="4">
-        <v>38.0</v>
+        <v>34.0</v>
       </c>
       <c r="Q177" s="4">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="R177" s="4">
-        <v>33.0</v>
+        <v>17.0</v>
       </c>
       <c r="S177" s="4">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="4">
-        <v>194.0</v>
+        <v>195.0</v>
       </c>
       <c r="B178" s="5">
-        <v>45116.3204499751</v>
+        <v>45116.3341727658</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H178" s="4">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="I178" s="4">
-        <v>62.0</v>
+        <v>50.0</v>
       </c>
       <c r="J178" s="4">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="K178" s="4">
-        <v>61.0</v>
+        <v>68.0</v>
       </c>
       <c r="L178" s="4">
-        <v>55.0</v>
+        <v>59.0</v>
       </c>
       <c r="M178" s="4">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="N178" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="O178" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="P178" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="Q178" s="4">
         <v>43.0</v>
       </c>
-      <c r="O178" s="4">
-        <v>42.0</v>
-      </c>
-      <c r="P178" s="4">
-        <v>34.0</v>
-      </c>
-      <c r="Q178" s="4">
-        <v>42.0</v>
-      </c>
       <c r="R178" s="4">
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
       <c r="S178" s="4">
-        <v>28.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="4">
-        <v>195.0</v>
+        <v>196.0</v>
       </c>
       <c r="B179" s="5">
-        <v>45116.3341727658</v>
+        <v>45116.3792745018</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>642</v>
+        <v>152</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>643</v>
@@ -13141,113 +13750,113 @@
         <v>645</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H179" s="4">
-        <v>90.0</v>
+        <v>72.0</v>
       </c>
       <c r="I179" s="4">
-        <v>50.0</v>
+        <v>42.0</v>
       </c>
       <c r="J179" s="4">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
       <c r="K179" s="4">
-        <v>68.0</v>
+        <v>35.0</v>
       </c>
       <c r="L179" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="M179" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="N179" s="4">
         <v>59.0</v>
       </c>
-      <c r="M179" s="4">
-        <v>52.0</v>
-      </c>
-      <c r="N179" s="4">
-        <v>54.0</v>
-      </c>
       <c r="O179" s="4">
-        <v>46.0</v>
+        <v>39.0</v>
       </c>
       <c r="P179" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="Q179" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="R179" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="S179" s="4">
         <v>31.0</v>
-      </c>
-      <c r="Q179" s="4">
-        <v>43.0</v>
-      </c>
-      <c r="R179" s="4">
-        <v>24.0</v>
-      </c>
-      <c r="S179" s="4">
-        <v>43.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="4">
-        <v>196.0</v>
+        <v>197.0</v>
       </c>
       <c r="B180" s="5">
-        <v>45116.3792745018</v>
+        <v>45116.4768858561</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>152</v>
+        <v>646</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>648</v>
+        <v>26</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>11</v>
+        <v>649</v>
       </c>
       <c r="H180" s="4">
-        <v>72.0</v>
+        <v>80.0</v>
       </c>
       <c r="I180" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="J180" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="K180" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="L180" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="M180" s="4">
         <v>42.0</v>
       </c>
-      <c r="J180" s="4">
-        <v>54.0</v>
-      </c>
-      <c r="K180" s="4">
+      <c r="N180" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="O180" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="P180" s="4">
         <v>35.0</v>
       </c>
-      <c r="L180" s="4">
-        <v>56.0</v>
-      </c>
-      <c r="M180" s="4">
-        <v>43.0</v>
-      </c>
-      <c r="N180" s="4">
-        <v>59.0</v>
-      </c>
-      <c r="O180" s="4">
-        <v>39.0</v>
-      </c>
-      <c r="P180" s="4">
-        <v>41.0</v>
-      </c>
       <c r="Q180" s="4">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="R180" s="4">
-        <v>27.0</v>
+        <v>32.0</v>
       </c>
       <c r="S180" s="4">
-        <v>31.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="4">
-        <v>197.0</v>
+        <v>198.0</v>
       </c>
       <c r="B181" s="5">
-        <v>45116.4768858561</v>
+        <v>45116.6304730107</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>649</v>
+        <v>51</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>650</v>
@@ -13259,40 +13868,40 @@
         <v>26</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>652</v>
+        <v>173</v>
       </c>
       <c r="H181" s="4">
-        <v>80.0</v>
+        <v>85.0</v>
       </c>
       <c r="I181" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="J181" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="K181" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="L181" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="M181" s="4">
         <v>56.0</v>
       </c>
-      <c r="J181" s="4">
-        <v>64.0</v>
-      </c>
-      <c r="K181" s="4">
-        <v>55.0</v>
-      </c>
-      <c r="L181" s="4">
-        <v>57.0</v>
-      </c>
-      <c r="M181" s="4">
-        <v>42.0</v>
-      </c>
       <c r="N181" s="4">
-        <v>62.0</v>
+        <v>58.0</v>
       </c>
       <c r="O181" s="4">
-        <v>40.0</v>
+        <v>51.0</v>
       </c>
       <c r="P181" s="4">
-        <v>35.0</v>
+        <v>27.0</v>
       </c>
       <c r="Q181" s="4">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="R181" s="4">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="S181" s="4">
         <v>38.0</v>
@@ -13300,128 +13909,128 @@
     </row>
     <row r="182">
       <c r="A182" s="4">
-        <v>198.0</v>
+        <v>199.0</v>
       </c>
       <c r="B182" s="5">
-        <v>45116.6304730107</v>
+        <v>45117.3587363939</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>51</v>
+        <v>459</v>
       </c>
       <c r="D182" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="E182" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="E182" s="4" t="s">
+      <c r="F182" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="F182" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="G182" s="4" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="H182" s="4">
-        <v>85.0</v>
+        <v>73.0</v>
       </c>
       <c r="I182" s="4">
-        <v>55.0</v>
+        <v>53.0</v>
       </c>
       <c r="J182" s="4">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="K182" s="4">
-        <v>61.0</v>
+        <v>60.0</v>
       </c>
       <c r="L182" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="M182" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="N182" s="4">
         <v>50.0</v>
       </c>
-      <c r="M182" s="4">
-        <v>56.0</v>
-      </c>
-      <c r="N182" s="4">
-        <v>58.0</v>
-      </c>
       <c r="O182" s="4">
-        <v>51.0</v>
+        <v>46.0</v>
       </c>
       <c r="P182" s="4">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="Q182" s="4">
-        <v>48.0</v>
+        <v>34.0</v>
       </c>
       <c r="R182" s="4">
-        <v>33.0</v>
+        <v>25.0</v>
       </c>
       <c r="S182" s="4">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="4">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
       <c r="B183" s="5">
-        <v>45117.3587363939</v>
+        <v>45117.3921126909</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>459</v>
+        <v>655</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>657</v>
+        <v>26</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H183" s="4">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="I183" s="4">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
       <c r="J183" s="4">
-        <v>71.0</v>
+        <v>49.0</v>
       </c>
       <c r="K183" s="4">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
       <c r="L183" s="4">
         <v>52.0</v>
       </c>
       <c r="M183" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="N183" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="O183" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="P183" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="Q183" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="R183" s="4">
         <v>48.0</v>
       </c>
-      <c r="N183" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="O183" s="4">
-        <v>46.0</v>
-      </c>
-      <c r="P183" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="Q183" s="4">
-        <v>34.0</v>
-      </c>
-      <c r="R183" s="4">
-        <v>25.0</v>
-      </c>
       <c r="S183" s="4">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="4">
-        <v>200.0</v>
+        <v>203.0</v>
       </c>
       <c r="B184" s="5">
-        <v>45117.3921126909</v>
+        <v>45117.4767968325</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>658</v>
@@ -13436,352 +14045,352 @@
         <v>26</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H184" s="4">
-        <v>76.0</v>
+        <v>87.0</v>
       </c>
       <c r="I184" s="4">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
       <c r="J184" s="4">
-        <v>49.0</v>
+        <v>61.0</v>
       </c>
       <c r="K184" s="4">
-        <v>62.0</v>
+        <v>75.0</v>
       </c>
       <c r="L184" s="4">
-        <v>52.0</v>
+        <v>60.0</v>
       </c>
       <c r="M184" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="N184" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="O184" s="4">
         <v>56.0</v>
       </c>
-      <c r="N184" s="4">
-        <v>53.0</v>
-      </c>
-      <c r="O184" s="4">
-        <v>42.0</v>
-      </c>
       <c r="P184" s="4">
-        <v>34.0</v>
+        <v>22.0</v>
       </c>
       <c r="Q184" s="4">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="R184" s="4">
-        <v>48.0</v>
+        <v>21.0</v>
       </c>
       <c r="S184" s="4">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="4">
-        <v>203.0</v>
+        <v>204.0</v>
       </c>
       <c r="B185" s="5">
-        <v>45117.4767968325</v>
+        <v>45117.5510725217</v>
       </c>
       <c r="C185" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D185" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="E185" s="4" t="s">
         <v>662</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>663</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="H185" s="4">
-        <v>87.0</v>
+        <v>72.0</v>
       </c>
       <c r="I185" s="4">
-        <v>58.0</v>
+        <v>53.0</v>
       </c>
       <c r="J185" s="4">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="K185" s="4">
-        <v>75.0</v>
+        <v>46.0</v>
       </c>
       <c r="L185" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="M185" s="4">
         <v>60.0</v>
       </c>
-      <c r="M185" s="4">
-        <v>53.0</v>
-      </c>
       <c r="N185" s="4">
-        <v>57.0</v>
+        <v>52.0</v>
       </c>
       <c r="O185" s="4">
-        <v>56.0</v>
+        <v>45.0</v>
       </c>
       <c r="P185" s="4">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="Q185" s="4">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
       <c r="R185" s="4">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="S185" s="4">
-        <v>31.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="4">
-        <v>204.0</v>
+        <v>205.0</v>
       </c>
       <c r="B186" s="5">
-        <v>45117.5510725217</v>
+        <v>45117.5700245751</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>235</v>
+        <v>663</v>
       </c>
       <c r="D186" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E186" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="E186" s="4" t="s">
+      <c r="F186" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="F186" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="G186" s="4" t="s">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="H186" s="4">
-        <v>72.0</v>
+        <v>76.0</v>
       </c>
       <c r="I186" s="4">
-        <v>53.0</v>
+        <v>57.0</v>
       </c>
       <c r="J186" s="4">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="K186" s="4">
-        <v>46.0</v>
+        <v>55.0</v>
       </c>
       <c r="L186" s="4">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="M186" s="4">
-        <v>60.0</v>
+        <v>52.0</v>
       </c>
       <c r="N186" s="4">
-        <v>52.0</v>
+        <v>48.0</v>
       </c>
       <c r="O186" s="4">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="P186" s="4">
-        <v>23.0</v>
+        <v>34.0</v>
       </c>
       <c r="Q186" s="4">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
       <c r="R186" s="4">
-        <v>28.0</v>
+        <v>37.0</v>
       </c>
       <c r="S186" s="4">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="4">
-        <v>205.0</v>
+        <v>206.0</v>
       </c>
       <c r="B187" s="5">
-        <v>45117.5700245751</v>
+        <v>45117.5793169093</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>666</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>388</v>
+        <v>667</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H187" s="4">
-        <v>76.0</v>
+        <v>70.0</v>
       </c>
       <c r="I187" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="J187" s="4">
         <v>57.0</v>
       </c>
-      <c r="J187" s="4">
-        <v>61.0</v>
-      </c>
       <c r="K187" s="4">
-        <v>55.0</v>
+        <v>52.0</v>
       </c>
       <c r="L187" s="4">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="M187" s="4">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="N187" s="4">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="O187" s="4">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="P187" s="4">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="Q187" s="4">
-        <v>49.0</v>
+        <v>40.0</v>
       </c>
       <c r="R187" s="4">
-        <v>37.0</v>
+        <v>26.0</v>
       </c>
       <c r="S187" s="4">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="4">
-        <v>206.0</v>
+        <v>207.0</v>
       </c>
       <c r="B188" s="5">
-        <v>45117.5793169093</v>
+        <v>45117.7998630907</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>45</v>
+        <v>674</v>
       </c>
       <c r="H188" s="4">
-        <v>70.0</v>
+        <v>76.0</v>
       </c>
       <c r="I188" s="4">
-        <v>65.0</v>
+        <v>62.0</v>
       </c>
       <c r="J188" s="4">
-        <v>57.0</v>
+        <v>73.0</v>
       </c>
       <c r="K188" s="4">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
       <c r="L188" s="4">
-        <v>49.0</v>
+        <v>60.0</v>
       </c>
       <c r="M188" s="4">
-        <v>58.0</v>
+        <v>46.0</v>
       </c>
       <c r="N188" s="4">
         <v>50.0</v>
       </c>
       <c r="O188" s="4">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="P188" s="4">
-        <v>33.0</v>
+        <v>51.0</v>
       </c>
       <c r="Q188" s="4">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="R188" s="4">
         <v>26.0</v>
       </c>
       <c r="S188" s="4">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="4">
-        <v>207.0</v>
+        <v>209.0</v>
       </c>
       <c r="B189" s="5">
-        <v>45117.7998630907</v>
+        <v>45117.8080214623</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>673</v>
+        <v>59</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>674</v>
+        <v>437</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>675</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>676</v>
+        <v>26</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>677</v>
+        <v>9</v>
       </c>
       <c r="H189" s="4">
-        <v>76.0</v>
+        <v>79.0</v>
       </c>
       <c r="I189" s="4">
-        <v>62.0</v>
+        <v>58.0</v>
       </c>
       <c r="J189" s="4">
-        <v>73.0</v>
+        <v>84.0</v>
       </c>
       <c r="K189" s="4">
-        <v>62.0</v>
+        <v>70.0</v>
       </c>
       <c r="L189" s="4">
-        <v>60.0</v>
+        <v>58.0</v>
       </c>
       <c r="M189" s="4">
-        <v>46.0</v>
+        <v>51.0</v>
       </c>
       <c r="N189" s="4">
-        <v>50.0</v>
+        <v>42.0</v>
       </c>
       <c r="O189" s="4">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="P189" s="4">
-        <v>51.0</v>
+        <v>24.0</v>
       </c>
       <c r="Q189" s="4">
-        <v>43.0</v>
+        <v>35.0</v>
       </c>
       <c r="R189" s="4">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="S189" s="4">
-        <v>33.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="4">
-        <v>209.0</v>
+        <v>210.0</v>
       </c>
       <c r="B190" s="5">
-        <v>45117.8080214623</v>
+        <v>45117.8257874337</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>59</v>
+        <v>676</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>437</v>
+        <v>677</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>678</v>
@@ -13790,172 +14399,172 @@
         <v>26</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>9</v>
+        <v>679</v>
       </c>
       <c r="H190" s="4">
-        <v>79.0</v>
+        <v>84.0</v>
       </c>
       <c r="I190" s="4">
-        <v>58.0</v>
+        <v>50.0</v>
       </c>
       <c r="J190" s="4">
-        <v>84.0</v>
+        <v>54.0</v>
       </c>
       <c r="K190" s="4">
-        <v>70.0</v>
+        <v>63.0</v>
       </c>
       <c r="L190" s="4">
-        <v>58.0</v>
+        <v>68.0</v>
       </c>
       <c r="M190" s="4">
-        <v>51.0</v>
+        <v>49.0</v>
       </c>
       <c r="N190" s="4">
-        <v>42.0</v>
+        <v>62.0</v>
       </c>
       <c r="O190" s="4">
-        <v>30.0</v>
+        <v>46.0</v>
       </c>
       <c r="P190" s="4">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="Q190" s="4">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="R190" s="4">
-        <v>11.0</v>
+        <v>37.0</v>
       </c>
       <c r="S190" s="4">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="4">
-        <v>210.0</v>
+        <v>213.0</v>
       </c>
       <c r="B191" s="5">
-        <v>45117.8257874337</v>
+        <v>45117.9108535761</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>26</v>
+        <v>683</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H191" s="4">
-        <v>84.0</v>
+        <v>70.0</v>
       </c>
       <c r="I191" s="4">
-        <v>50.0</v>
+        <v>42.0</v>
       </c>
       <c r="J191" s="4">
-        <v>54.0</v>
+        <v>60.0</v>
       </c>
       <c r="K191" s="4">
-        <v>63.0</v>
+        <v>52.0</v>
       </c>
       <c r="L191" s="4">
-        <v>68.0</v>
+        <v>62.0</v>
       </c>
       <c r="M191" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="N191" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="O191" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="P191" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="Q191" s="4">
         <v>49.0</v>
       </c>
-      <c r="N191" s="4">
-        <v>62.0</v>
-      </c>
-      <c r="O191" s="4">
-        <v>46.0</v>
-      </c>
-      <c r="P191" s="4">
-        <v>29.0</v>
-      </c>
-      <c r="Q191" s="4">
-        <v>36.0</v>
-      </c>
       <c r="R191" s="4">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
       <c r="S191" s="4">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="4">
-        <v>213.0</v>
+        <v>214.0</v>
       </c>
       <c r="B192" s="5">
-        <v>45117.9108535761</v>
+        <v>45117.9558839922</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>683</v>
+        <v>420</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>686</v>
+        <v>26</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>687</v>
+        <v>9</v>
       </c>
       <c r="H192" s="4">
-        <v>70.0</v>
+        <v>84.0</v>
       </c>
       <c r="I192" s="4">
-        <v>42.0</v>
+        <v>60.0</v>
       </c>
       <c r="J192" s="4">
-        <v>60.0</v>
+        <v>79.0</v>
       </c>
       <c r="K192" s="4">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
       <c r="L192" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="M192" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="N192" s="4">
         <v>62.0</v>
       </c>
-      <c r="M192" s="4">
-        <v>41.0</v>
-      </c>
-      <c r="N192" s="4">
-        <v>36.0</v>
-      </c>
       <c r="O192" s="4">
-        <v>26.0</v>
+        <v>45.0</v>
       </c>
       <c r="P192" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="Q192" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="R192" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="S192" s="4">
         <v>44.0</v>
-      </c>
-      <c r="Q192" s="4">
-        <v>49.0</v>
-      </c>
-      <c r="R192" s="4">
-        <v>42.0</v>
-      </c>
-      <c r="S192" s="4">
-        <v>39.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="4">
-        <v>214.0</v>
+        <v>215.0</v>
       </c>
       <c r="B193" s="5">
-        <v>45117.9558839922</v>
+        <v>45118.2257086857</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>420</v>
+        <v>687</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>688</v>
@@ -13967,60 +14576,60 @@
         <v>26</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="H193" s="4">
-        <v>84.0</v>
+        <v>80.0</v>
       </c>
       <c r="I193" s="4">
-        <v>60.0</v>
+        <v>56.0</v>
       </c>
       <c r="J193" s="4">
-        <v>79.0</v>
+        <v>69.0</v>
       </c>
       <c r="K193" s="4">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="L193" s="4">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="M193" s="4">
-        <v>53.0</v>
+        <v>56.0</v>
       </c>
       <c r="N193" s="4">
-        <v>62.0</v>
+        <v>54.0</v>
       </c>
       <c r="O193" s="4">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="P193" s="4">
-        <v>14.0</v>
+        <v>37.0</v>
       </c>
       <c r="Q193" s="4">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
       <c r="R193" s="4">
-        <v>30.0</v>
+        <v>34.0</v>
       </c>
       <c r="S193" s="4">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="4">
-        <v>215.0</v>
+        <v>216.0</v>
       </c>
       <c r="B194" s="5">
-        <v>45118.2257086857</v>
+        <v>45118.305709926</v>
       </c>
       <c r="C194" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="E194" s="4" t="s">
         <v>691</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>692</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>26</v>
@@ -14029,51 +14638,51 @@
         <v>50</v>
       </c>
       <c r="H194" s="4">
-        <v>80.0</v>
+        <v>85.0</v>
       </c>
       <c r="I194" s="4">
-        <v>56.0</v>
+        <v>74.0</v>
       </c>
       <c r="J194" s="4">
-        <v>69.0</v>
+        <v>76.0</v>
       </c>
       <c r="K194" s="4">
-        <v>62.0</v>
+        <v>74.0</v>
       </c>
       <c r="L194" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="M194" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="N194" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="O194" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="P194" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="Q194" s="4">
         <v>58.0</v>
       </c>
-      <c r="M194" s="4">
-        <v>56.0</v>
-      </c>
-      <c r="N194" s="4">
-        <v>54.0</v>
-      </c>
-      <c r="O194" s="4">
-        <v>48.0</v>
-      </c>
-      <c r="P194" s="4">
-        <v>37.0</v>
-      </c>
-      <c r="Q194" s="4">
-        <v>46.0</v>
-      </c>
       <c r="R194" s="4">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="S194" s="4">
-        <v>43.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="4">
-        <v>216.0</v>
+        <v>217.0</v>
       </c>
       <c r="B195" s="5">
-        <v>45118.305709926</v>
+        <v>45118.5165437609</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>51</v>
+        <v>692</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>693</v>
@@ -14085,51 +14694,51 @@
         <v>26</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>50</v>
+        <v>291</v>
       </c>
       <c r="H195" s="4">
-        <v>85.0</v>
+        <v>76.0</v>
       </c>
       <c r="I195" s="4">
-        <v>74.0</v>
+        <v>52.0</v>
       </c>
       <c r="J195" s="4">
-        <v>76.0</v>
+        <v>68.0</v>
       </c>
       <c r="K195" s="4">
-        <v>74.0</v>
+        <v>58.0</v>
       </c>
       <c r="L195" s="4">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
       <c r="M195" s="4">
-        <v>49.0</v>
+        <v>45.0</v>
       </c>
       <c r="N195" s="4">
-        <v>72.0</v>
+        <v>48.0</v>
       </c>
       <c r="O195" s="4">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="P195" s="4">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="Q195" s="4">
-        <v>58.0</v>
+        <v>42.0</v>
       </c>
       <c r="R195" s="4">
-        <v>35.0</v>
+        <v>27.0</v>
       </c>
       <c r="S195" s="4">
-        <v>57.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="4">
-        <v>217.0</v>
+        <v>218.0</v>
       </c>
       <c r="B196" s="5">
-        <v>45118.5165437609</v>
+        <v>45118.7230596024</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>695</v>
@@ -14144,113 +14753,113 @@
         <v>26</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="H196" s="4">
-        <v>76.0</v>
+        <v>81.0</v>
       </c>
       <c r="I196" s="4">
-        <v>52.0</v>
+        <v>56.0</v>
       </c>
       <c r="J196" s="4">
-        <v>68.0</v>
+        <v>60.0</v>
       </c>
       <c r="K196" s="4">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="L196" s="4">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
       <c r="M196" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="N196" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="O196" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="P196" s="4">
         <v>45.0</v>
       </c>
-      <c r="N196" s="4">
-        <v>48.0</v>
-      </c>
-      <c r="O196" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="P196" s="4">
-        <v>30.0</v>
-      </c>
       <c r="Q196" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="R196" s="4">
         <v>42.0</v>
       </c>
-      <c r="R196" s="4">
-        <v>27.0</v>
-      </c>
       <c r="S196" s="4">
-        <v>36.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="4">
-        <v>218.0</v>
+        <v>219.0</v>
       </c>
       <c r="B197" s="5">
-        <v>45118.7230596024</v>
+        <v>45118.8826581307</v>
       </c>
       <c r="C197" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D197" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="D197" s="4" t="s">
+      <c r="E197" s="4" t="s">
         <v>699</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>700</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H197" s="4">
-        <v>81.0</v>
+        <v>82.0</v>
       </c>
       <c r="I197" s="4">
-        <v>56.0</v>
+        <v>54.0</v>
       </c>
       <c r="J197" s="4">
-        <v>60.0</v>
+        <v>54.0</v>
       </c>
       <c r="K197" s="4">
-        <v>63.0</v>
+        <v>59.0</v>
       </c>
       <c r="L197" s="4">
-        <v>50.0</v>
+        <v>57.0</v>
       </c>
       <c r="M197" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="N197" s="4">
         <v>51.0</v>
       </c>
-      <c r="N197" s="4">
-        <v>55.0</v>
-      </c>
       <c r="O197" s="4">
-        <v>49.0</v>
+        <v>36.0</v>
       </c>
       <c r="P197" s="4">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="Q197" s="4">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
       <c r="R197" s="4">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="S197" s="4">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="4">
-        <v>219.0</v>
+        <v>220.0</v>
       </c>
       <c r="B198" s="5">
-        <v>45118.8826581307</v>
+        <v>45119.3000488631</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>224</v>
+        <v>700</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>701</v>
@@ -14265,48 +14874,48 @@
         <v>50</v>
       </c>
       <c r="H198" s="4">
-        <v>82.0</v>
+        <v>74.0</v>
       </c>
       <c r="I198" s="4">
-        <v>54.0</v>
+        <v>43.0</v>
       </c>
       <c r="J198" s="4">
-        <v>54.0</v>
+        <v>62.0</v>
       </c>
       <c r="K198" s="4">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="L198" s="4">
-        <v>57.0</v>
+        <v>56.0</v>
       </c>
       <c r="M198" s="4">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="N198" s="4">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="O198" s="4">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
       <c r="P198" s="4">
-        <v>43.0</v>
+        <v>18.0</v>
       </c>
       <c r="Q198" s="4">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="R198" s="4">
-        <v>40.0</v>
+        <v>19.0</v>
       </c>
       <c r="S198" s="4">
-        <v>38.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="4">
-        <v>220.0</v>
+        <v>222.0</v>
       </c>
       <c r="B199" s="5">
-        <v>45119.3000488631</v>
+        <v>45119.3009462485</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>703</v>
@@ -14318,296 +14927,296 @@
         <v>705</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>26</v>
+        <v>706</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H199" s="4">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
       <c r="I199" s="4">
-        <v>43.0</v>
+        <v>52.0</v>
       </c>
       <c r="J199" s="4">
-        <v>62.0</v>
+        <v>57.0</v>
       </c>
       <c r="K199" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="L199" s="4">
         <v>60.0</v>
       </c>
-      <c r="L199" s="4">
-        <v>56.0</v>
-      </c>
       <c r="M199" s="4">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="N199" s="4">
         <v>55.0</v>
       </c>
       <c r="O199" s="4">
-        <v>30.0</v>
+        <v>47.0</v>
       </c>
       <c r="P199" s="4">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
       <c r="Q199" s="4">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
       <c r="R199" s="4">
-        <v>19.0</v>
+        <v>37.0</v>
       </c>
       <c r="S199" s="4">
-        <v>27.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="4">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="B200" s="5">
-        <v>45119.3009462485</v>
+        <v>45119.323940542</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="H200" s="4">
-        <v>78.0</v>
+        <v>88.0</v>
       </c>
       <c r="I200" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="J200" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="K200" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="L200" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="M200" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="N200" s="4">
         <v>52.0</v>
       </c>
-      <c r="J200" s="4">
-        <v>57.0</v>
-      </c>
-      <c r="K200" s="4">
-        <v>53.0</v>
-      </c>
-      <c r="L200" s="4">
-        <v>60.0</v>
-      </c>
-      <c r="M200" s="4">
-        <v>58.0</v>
-      </c>
-      <c r="N200" s="4">
-        <v>55.0</v>
-      </c>
       <c r="O200" s="4">
-        <v>47.0</v>
+        <v>46.0</v>
       </c>
       <c r="P200" s="4">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="Q200" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="R200" s="4">
         <v>38.0</v>
       </c>
-      <c r="R200" s="4">
-        <v>37.0</v>
-      </c>
       <c r="S200" s="4">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="4">
-        <v>223.0</v>
+        <v>224.0</v>
       </c>
       <c r="B201" s="5">
-        <v>45119.323940542</v>
+        <v>45119.3645281537</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="H201" s="4">
-        <v>88.0</v>
+        <v>70.0</v>
       </c>
       <c r="I201" s="4">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="J201" s="4">
-        <v>59.0</v>
+        <v>53.0</v>
       </c>
       <c r="K201" s="4">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="L201" s="4">
-        <v>58.0</v>
+        <v>57.0</v>
       </c>
       <c r="M201" s="4">
-        <v>56.0</v>
+        <v>52.0</v>
       </c>
       <c r="N201" s="4">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="O201" s="4">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
       <c r="P201" s="4">
-        <v>36.0</v>
+        <v>43.0</v>
       </c>
       <c r="Q201" s="4">
-        <v>43.0</v>
+        <v>54.0</v>
       </c>
       <c r="R201" s="4">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="S201" s="4">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="4">
-        <v>224.0</v>
+        <v>225.0</v>
       </c>
       <c r="B202" s="5">
-        <v>45119.3645281537</v>
+        <v>45119.3742214913</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>173</v>
+        <v>719</v>
       </c>
       <c r="H202" s="4">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
       <c r="I202" s="4">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
       <c r="J202" s="4">
-        <v>53.0</v>
+        <v>59.0</v>
       </c>
       <c r="K202" s="4">
-        <v>61.0</v>
+        <v>52.0</v>
       </c>
       <c r="L202" s="4">
-        <v>57.0</v>
+        <v>86.0</v>
       </c>
       <c r="M202" s="4">
-        <v>52.0</v>
+        <v>43.0</v>
       </c>
       <c r="N202" s="4">
         <v>53.0</v>
       </c>
       <c r="O202" s="4">
-        <v>44.0</v>
+        <v>51.0</v>
       </c>
       <c r="P202" s="4">
-        <v>43.0</v>
+        <v>32.0</v>
       </c>
       <c r="Q202" s="4">
-        <v>54.0</v>
+        <v>0.0</v>
       </c>
       <c r="R202" s="4">
-        <v>39.0</v>
+        <v>32.0</v>
       </c>
       <c r="S202" s="4">
-        <v>47.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="4">
-        <v>225.0</v>
+        <v>226.0</v>
       </c>
       <c r="B203" s="5">
-        <v>45119.3742214913</v>
+        <v>45119.454348528</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>722</v>
+        <v>121</v>
       </c>
       <c r="H203" s="4">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
       <c r="I203" s="4">
-        <v>51.0</v>
+        <v>61.0</v>
       </c>
       <c r="J203" s="4">
-        <v>59.0</v>
+        <v>77.0</v>
       </c>
       <c r="K203" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="L203" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="M203" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="N203" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="O203" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="P203" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="Q203" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="R203" s="4">
         <v>52.0</v>
       </c>
-      <c r="L203" s="4">
-        <v>86.0</v>
-      </c>
-      <c r="M203" s="4">
-        <v>43.0</v>
-      </c>
-      <c r="N203" s="4">
-        <v>53.0</v>
-      </c>
-      <c r="O203" s="4">
-        <v>51.0</v>
-      </c>
-      <c r="P203" s="4">
-        <v>32.0</v>
-      </c>
-      <c r="Q203" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="R203" s="4">
-        <v>32.0</v>
-      </c>
       <c r="S203" s="4">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="4">
-        <v>226.0</v>
+        <v>227.0</v>
       </c>
       <c r="B204" s="5">
-        <v>45119.454348528</v>
+        <v>45119.4859589184</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>724</v>
+        <v>440</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>725</v>
@@ -14619,54 +15228,54 @@
         <v>121</v>
       </c>
       <c r="H204" s="4">
-        <v>80.0</v>
+        <v>74.0</v>
       </c>
       <c r="I204" s="4">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
       <c r="J204" s="4">
-        <v>77.0</v>
+        <v>68.0</v>
       </c>
       <c r="K204" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="L204" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="M204" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="N204" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="O204" s="4">
         <v>45.0</v>
       </c>
-      <c r="L204" s="4">
-        <v>56.0</v>
-      </c>
-      <c r="M204" s="4">
-        <v>55.0</v>
-      </c>
-      <c r="N204" s="4">
-        <v>37.0</v>
-      </c>
-      <c r="O204" s="4">
-        <v>50.0</v>
-      </c>
       <c r="P204" s="4">
-        <v>53.0</v>
+        <v>40.0</v>
       </c>
       <c r="Q204" s="4">
         <v>46.0</v>
       </c>
       <c r="R204" s="4">
-        <v>52.0</v>
+        <v>40.0</v>
       </c>
       <c r="S204" s="4">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="4">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="B205" s="5">
-        <v>45119.4859589184</v>
+        <v>45119.5084873679</v>
       </c>
       <c r="C205" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D205" s="4" t="s">
         <v>727</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>728</v>
@@ -14675,54 +15284,54 @@
         <v>729</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="H205" s="4">
-        <v>74.0</v>
+        <v>81.0</v>
       </c>
       <c r="I205" s="4">
-        <v>54.0</v>
+        <v>53.0</v>
       </c>
       <c r="J205" s="4">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="K205" s="4">
-        <v>55.0</v>
+        <v>49.0</v>
       </c>
       <c r="L205" s="4">
-        <v>75.0</v>
+        <v>65.0</v>
       </c>
       <c r="M205" s="4">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="N205" s="4">
-        <v>52.0</v>
+        <v>64.0</v>
       </c>
       <c r="O205" s="4">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="P205" s="4">
-        <v>40.0</v>
+        <v>27.0</v>
       </c>
       <c r="Q205" s="4">
-        <v>46.0</v>
+        <v>41.0</v>
       </c>
       <c r="R205" s="4">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="S205" s="4">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="4">
-        <v>228.0</v>
+        <v>229.0</v>
       </c>
       <c r="B206" s="5">
-        <v>45119.5084873679</v>
+        <v>45119.5500763231</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>299</v>
+        <v>490</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>730</v>
@@ -14734,178 +15343,178 @@
         <v>732</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>50</v>
+        <v>733</v>
       </c>
       <c r="H206" s="4">
-        <v>81.0</v>
+        <v>86.0</v>
       </c>
       <c r="I206" s="4">
-        <v>53.0</v>
+        <v>63.0</v>
       </c>
       <c r="J206" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="K206" s="4">
         <v>69.0</v>
       </c>
-      <c r="K206" s="4">
-        <v>49.0</v>
-      </c>
       <c r="L206" s="4">
-        <v>65.0</v>
+        <v>64.0</v>
       </c>
       <c r="M206" s="4">
-        <v>57.0</v>
+        <v>61.0</v>
       </c>
       <c r="N206" s="4">
-        <v>64.0</v>
+        <v>59.0</v>
       </c>
       <c r="O206" s="4">
-        <v>44.0</v>
+        <v>55.0</v>
       </c>
       <c r="P206" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="Q206" s="4">
         <v>27.0</v>
       </c>
-      <c r="Q206" s="4">
-        <v>41.0</v>
-      </c>
       <c r="R206" s="4">
-        <v>47.0</v>
+        <v>28.0</v>
       </c>
       <c r="S206" s="4">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="4">
-        <v>229.0</v>
+        <v>231.0</v>
       </c>
       <c r="B207" s="5">
-        <v>45119.5500763231</v>
+        <v>45119.5577818331</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>490</v>
+        <v>734</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>736</v>
+        <v>7</v>
       </c>
       <c r="H207" s="4">
-        <v>86.0</v>
+        <v>79.0</v>
       </c>
       <c r="I207" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="J207" s="4">
         <v>63.0</v>
       </c>
-      <c r="J207" s="4">
-        <v>65.0</v>
-      </c>
       <c r="K207" s="4">
-        <v>69.0</v>
+        <v>59.0</v>
       </c>
       <c r="L207" s="4">
-        <v>64.0</v>
+        <v>55.0</v>
       </c>
       <c r="M207" s="4">
-        <v>61.0</v>
+        <v>52.0</v>
       </c>
       <c r="N207" s="4">
-        <v>59.0</v>
+        <v>53.0</v>
       </c>
       <c r="O207" s="4">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
       <c r="P207" s="4">
-        <v>26.0</v>
+        <v>47.0</v>
       </c>
       <c r="Q207" s="4">
-        <v>27.0</v>
+        <v>45.0</v>
       </c>
       <c r="R207" s="4">
-        <v>28.0</v>
+        <v>42.0</v>
       </c>
       <c r="S207" s="4">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="4">
-        <v>231.0</v>
+        <v>232.0</v>
       </c>
       <c r="B208" s="5">
-        <v>45119.5577818331</v>
+        <v>45119.5664398429</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>740</v>
+        <v>26</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="H208" s="4">
-        <v>79.0</v>
+        <v>76.0</v>
       </c>
       <c r="I208" s="4">
-        <v>55.0</v>
+        <v>61.0</v>
       </c>
       <c r="J208" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="K208" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="L208" s="4">
+        <v>80.0</v>
+      </c>
+      <c r="M208" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="N208" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="O208" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="P208" s="4">
         <v>63.0</v>
       </c>
-      <c r="K208" s="4">
-        <v>59.0</v>
-      </c>
-      <c r="L208" s="4">
-        <v>55.0</v>
-      </c>
-      <c r="M208" s="4">
-        <v>52.0</v>
-      </c>
-      <c r="N208" s="4">
-        <v>53.0</v>
-      </c>
-      <c r="O208" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="P208" s="4">
-        <v>47.0</v>
-      </c>
       <c r="Q208" s="4">
-        <v>45.0</v>
+        <v>21.0</v>
       </c>
       <c r="R208" s="4">
-        <v>42.0</v>
+        <v>31.0</v>
       </c>
       <c r="S208" s="4">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="4">
-        <v>232.0</v>
+        <v>238.0</v>
       </c>
       <c r="B209" s="5">
-        <v>45119.5664398429</v>
+        <v>45119.733273772</v>
       </c>
       <c r="C209" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D209" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="E209" s="4" t="s">
         <v>742</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>743</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>26</v>
@@ -14914,51 +15523,51 @@
         <v>50</v>
       </c>
       <c r="H209" s="4">
-        <v>76.0</v>
+        <v>78.0</v>
       </c>
       <c r="I209" s="4">
-        <v>61.0</v>
+        <v>55.0</v>
       </c>
       <c r="J209" s="4">
+        <v>79.0</v>
+      </c>
+      <c r="K209" s="4">
+        <v>69.0</v>
+      </c>
+      <c r="L209" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="M209" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="N209" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="O209" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="P209" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="Q209" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="R209" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="S209" s="4">
         <v>40.0</v>
-      </c>
-      <c r="K209" s="4">
-        <v>38.0</v>
-      </c>
-      <c r="L209" s="4">
-        <v>80.0</v>
-      </c>
-      <c r="M209" s="4">
-        <v>61.0</v>
-      </c>
-      <c r="N209" s="4">
-        <v>41.0</v>
-      </c>
-      <c r="O209" s="4">
-        <v>49.0</v>
-      </c>
-      <c r="P209" s="4">
-        <v>63.0</v>
-      </c>
-      <c r="Q209" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="R209" s="4">
-        <v>31.0</v>
-      </c>
-      <c r="S209" s="4">
-        <v>31.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="4">
-        <v>238.0</v>
+        <v>239.0</v>
       </c>
       <c r="B210" s="5">
-        <v>45119.733273772</v>
+        <v>45119.8019633778</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>100</v>
+        <v>743</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>744</v>
@@ -14967,172 +15576,172 @@
         <v>745</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>26</v>
+        <v>746</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>50</v>
+        <v>588</v>
       </c>
       <c r="H210" s="4">
-        <v>78.0</v>
+        <v>86.0</v>
       </c>
       <c r="I210" s="4">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="J210" s="4">
-        <v>79.0</v>
+        <v>68.0</v>
       </c>
       <c r="K210" s="4">
-        <v>69.0</v>
+        <v>59.0</v>
       </c>
       <c r="L210" s="4">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="M210" s="4">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="N210" s="4">
-        <v>42.0</v>
+        <v>57.0</v>
       </c>
       <c r="O210" s="4">
-        <v>36.0</v>
+        <v>44.0</v>
       </c>
       <c r="P210" s="4">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="Q210" s="4">
-        <v>18.0</v>
+        <v>48.0</v>
       </c>
       <c r="R210" s="4">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="S210" s="4">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="4">
-        <v>239.0</v>
+        <v>240.0</v>
       </c>
       <c r="B211" s="5">
-        <v>45119.8019633778</v>
+        <v>45119.8489252234</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>588</v>
+        <v>129</v>
       </c>
       <c r="H211" s="4">
-        <v>86.0</v>
+        <v>81.0</v>
       </c>
       <c r="I211" s="4">
-        <v>56.0</v>
+        <v>61.0</v>
       </c>
       <c r="J211" s="4">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="K211" s="4">
-        <v>59.0</v>
+        <v>65.0</v>
       </c>
       <c r="L211" s="4">
-        <v>50.0</v>
+        <v>61.0</v>
       </c>
       <c r="M211" s="4">
-        <v>53.0</v>
+        <v>58.0</v>
       </c>
       <c r="N211" s="4">
-        <v>57.0</v>
+        <v>64.0</v>
       </c>
       <c r="O211" s="4">
-        <v>44.0</v>
+        <v>48.0</v>
       </c>
       <c r="P211" s="4">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
       <c r="Q211" s="4">
-        <v>48.0</v>
+        <v>40.0</v>
       </c>
       <c r="R211" s="4">
-        <v>34.0</v>
+        <v>70.0</v>
       </c>
       <c r="S211" s="4">
-        <v>43.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="4">
-        <v>240.0</v>
+        <v>241.0</v>
       </c>
       <c r="B212" s="5">
-        <v>45119.8489252234</v>
+        <v>45119.9152319715</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>753</v>
+        <v>26</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H212" s="4">
-        <v>81.0</v>
+        <v>79.0</v>
       </c>
       <c r="I212" s="4">
-        <v>61.0</v>
+        <v>68.0</v>
       </c>
       <c r="J212" s="4">
-        <v>71.0</v>
+        <v>64.0</v>
       </c>
       <c r="K212" s="4">
-        <v>65.0</v>
+        <v>44.0</v>
       </c>
       <c r="L212" s="4">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="M212" s="4">
-        <v>58.0</v>
+        <v>45.0</v>
       </c>
       <c r="N212" s="4">
-        <v>64.0</v>
+        <v>56.0</v>
       </c>
       <c r="O212" s="4">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="P212" s="4">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="Q212" s="4">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
       <c r="R212" s="4">
-        <v>70.0</v>
+        <v>29.0</v>
       </c>
       <c r="S212" s="4">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="4">
-        <v>241.0</v>
+        <v>243.0</v>
       </c>
       <c r="B213" s="5">
-        <v>45119.9152319715</v>
+        <v>45120.2682620862</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>754</v>
@@ -15147,54 +15756,54 @@
         <v>26</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>137</v>
+        <v>757</v>
       </c>
       <c r="H213" s="4">
-        <v>79.0</v>
+        <v>78.0</v>
       </c>
       <c r="I213" s="4">
-        <v>68.0</v>
+        <v>64.0</v>
       </c>
       <c r="J213" s="4">
+        <v>82.0</v>
+      </c>
+      <c r="K213" s="4">
         <v>64.0</v>
       </c>
-      <c r="K213" s="4">
-        <v>44.0</v>
-      </c>
       <c r="L213" s="4">
-        <v>63.0</v>
+        <v>75.0</v>
       </c>
       <c r="M213" s="4">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
       <c r="N213" s="4">
-        <v>56.0</v>
+        <v>39.0</v>
       </c>
       <c r="O213" s="4">
-        <v>49.0</v>
+        <v>41.0</v>
       </c>
       <c r="P213" s="4">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
       <c r="Q213" s="4">
-        <v>32.0</v>
+        <v>46.0</v>
       </c>
       <c r="R213" s="4">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
       <c r="S213" s="4">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="4">
-        <v>243.0</v>
+        <v>244.0</v>
       </c>
       <c r="B214" s="5">
-        <v>45120.2682620862</v>
+        <v>45120.463561525</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>757</v>
+        <v>138</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>758</v>
@@ -15206,54 +15815,54 @@
         <v>26</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>760</v>
+        <v>338</v>
       </c>
       <c r="H214" s="4">
-        <v>78.0</v>
+        <v>77.0</v>
       </c>
       <c r="I214" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="J214" s="4">
+        <v>81.0</v>
+      </c>
+      <c r="K214" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="L214" s="4">
         <v>64.0</v>
       </c>
-      <c r="J214" s="4">
-        <v>82.0</v>
-      </c>
-      <c r="K214" s="4">
-        <v>64.0</v>
-      </c>
-      <c r="L214" s="4">
-        <v>75.0</v>
-      </c>
       <c r="M214" s="4">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
       <c r="N214" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="O214" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="P214" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="Q214" s="4">
         <v>39.0</v>
       </c>
-      <c r="O214" s="4">
-        <v>41.0</v>
-      </c>
-      <c r="P214" s="4">
-        <v>32.0</v>
-      </c>
-      <c r="Q214" s="4">
-        <v>46.0</v>
-      </c>
       <c r="R214" s="4">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="S214" s="4">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="4">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="B215" s="5">
-        <v>45120.463561525</v>
+        <v>45120.4682292166</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>138</v>
+        <v>760</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>761</v>
@@ -15265,51 +15874,51 @@
         <v>26</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>338</v>
+        <v>50</v>
       </c>
       <c r="H215" s="4">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="I215" s="4">
-        <v>44.0</v>
+        <v>55.0</v>
       </c>
       <c r="J215" s="4">
-        <v>81.0</v>
+        <v>68.0</v>
       </c>
       <c r="K215" s="4">
-        <v>63.0</v>
+        <v>61.0</v>
       </c>
       <c r="L215" s="4">
-        <v>64.0</v>
+        <v>50.0</v>
       </c>
       <c r="M215" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="N215" s="4">
         <v>57.0</v>
       </c>
-      <c r="N215" s="4">
-        <v>43.0</v>
-      </c>
       <c r="O215" s="4">
-        <v>50.0</v>
+        <v>46.0</v>
       </c>
       <c r="P215" s="4">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="Q215" s="4">
         <v>39.0</v>
       </c>
       <c r="R215" s="4">
-        <v>35.0</v>
+        <v>41.0</v>
       </c>
       <c r="S215" s="4">
-        <v>38.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="4">
-        <v>246.0</v>
+        <v>247.0</v>
       </c>
       <c r="B216" s="5">
-        <v>45120.4682292166</v>
+        <v>45120.5026748581</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>763</v>
@@ -15321,119 +15930,119 @@
         <v>765</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="H216" s="4">
-        <v>80.0</v>
+        <v>77.0</v>
       </c>
       <c r="I216" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="J216" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="K216" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="L216" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="M216" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="N216" s="4">
         <v>55.0</v>
       </c>
-      <c r="J216" s="4">
-        <v>68.0</v>
-      </c>
-      <c r="K216" s="4">
-        <v>61.0</v>
-      </c>
-      <c r="L216" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="M216" s="4">
-        <v>52.0</v>
-      </c>
-      <c r="N216" s="4">
-        <v>57.0</v>
-      </c>
       <c r="O216" s="4">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="P216" s="4">
-        <v>35.0</v>
+        <v>22.0</v>
       </c>
       <c r="Q216" s="4">
-        <v>39.0</v>
+        <v>31.0</v>
       </c>
       <c r="R216" s="4">
-        <v>41.0</v>
+        <v>27.0</v>
       </c>
       <c r="S216" s="4">
-        <v>48.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="4">
-        <v>247.0</v>
+        <v>248.0</v>
       </c>
       <c r="B217" s="5">
-        <v>45120.5026748581</v>
+        <v>45120.9566252721</v>
       </c>
       <c r="C217" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D217" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="D217" s="4" t="s">
+      <c r="E217" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="E217" s="4" t="s">
+      <c r="F217" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="F217" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="G217" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H217" s="4">
-        <v>77.0</v>
+        <v>69.0</v>
       </c>
       <c r="I217" s="4">
-        <v>60.0</v>
+        <v>49.0</v>
       </c>
       <c r="J217" s="4">
-        <v>63.0</v>
+        <v>52.0</v>
       </c>
       <c r="K217" s="4">
-        <v>62.0</v>
+        <v>49.0</v>
       </c>
       <c r="L217" s="4">
-        <v>58.0</v>
+        <v>61.0</v>
       </c>
       <c r="M217" s="4">
-        <v>58.0</v>
+        <v>47.0</v>
       </c>
       <c r="N217" s="4">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
       <c r="O217" s="4">
-        <v>48.0</v>
+        <v>29.0</v>
       </c>
       <c r="P217" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="Q217" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="R217" s="4">
         <v>22.0</v>
       </c>
-      <c r="Q217" s="4">
-        <v>31.0</v>
-      </c>
-      <c r="R217" s="4">
-        <v>27.0</v>
-      </c>
       <c r="S217" s="4">
-        <v>43.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="4">
-        <v>248.0</v>
+        <v>249.0</v>
       </c>
       <c r="B218" s="5">
-        <v>45120.9566252721</v>
+        <v>45121.3018360766</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>335</v>
+        <v>769</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>769</v>
+        <v>50</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>770</v>
@@ -15442,43 +16051,3996 @@
         <v>771</v>
       </c>
       <c r="G218" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H218" s="4">
+        <v>80.0</v>
+      </c>
+      <c r="I218" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="J218" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="K218" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="L218" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="M218" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="N218" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="O218" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="P218" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="Q218" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="R218" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="S218" s="4">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="4">
+        <v>250.0</v>
+      </c>
+      <c r="B219" s="5">
+        <v>45121.3021174824</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H219" s="4">
+        <v>86.0</v>
+      </c>
+      <c r="I219" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="J219" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="K219" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="L219" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="M219" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="N219" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="O219" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="P219" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="Q219" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="R219" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="S219" s="4">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="4">
+        <v>251.0</v>
+      </c>
+      <c r="B220" s="5">
+        <v>45121.3079603395</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H220" s="4">
+        <v>79.0</v>
+      </c>
+      <c r="I220" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="J220" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="K220" s="4">
+        <v>69.0</v>
+      </c>
+      <c r="L220" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="M220" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="N220" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="O220" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="P220" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="Q220" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="R220" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="S220" s="4">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="4">
+        <v>252.0</v>
+      </c>
+      <c r="B221" s="5">
+        <v>45121.3123004957</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H221" s="4">
+        <v>71.0</v>
+      </c>
+      <c r="I221" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="J221" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="K221" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="L221" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="M221" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="N221" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="O221" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="P221" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="Q221" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="R221" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="S221" s="4">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="4">
+        <v>254.0</v>
+      </c>
+      <c r="B222" s="5">
+        <v>45121.3813948662</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H222" s="4">
+        <v>77.0</v>
+      </c>
+      <c r="I222" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="J222" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="K222" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="L222" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="M222" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="N222" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="O222" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="P222" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="Q222" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="R222" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="S222" s="4">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="4">
+        <v>255.0</v>
+      </c>
+      <c r="B223" s="5">
+        <v>45121.3873743458</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H223" s="4">
+        <v>82.0</v>
+      </c>
+      <c r="I223" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="J223" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="K223" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="L223" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="M223" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="N223" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="O223" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="P223" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="Q223" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="R223" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="S223" s="4">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="4">
+        <v>256.0</v>
+      </c>
+      <c r="B224" s="5">
+        <v>45121.3998488417</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H224" s="4">
+        <v>80.0</v>
+      </c>
+      <c r="I224" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="J224" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="K224" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="L224" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="M224" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="N224" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="O224" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="P224" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="Q224" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="R224" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="S224" s="4">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="4">
+        <v>257.0</v>
+      </c>
+      <c r="B225" s="5">
+        <v>45121.4198410229</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H225" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="I225" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="J225" s="4">
+        <v>68.0</v>
+      </c>
+      <c r="K225" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="L225" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="M225" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="N225" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="O225" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="P225" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="Q225" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="R225" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="S225" s="4">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="4">
+        <v>258.0</v>
+      </c>
+      <c r="B226" s="5">
+        <v>45121.4402677353</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H226" s="4">
+        <v>77.0</v>
+      </c>
+      <c r="I226" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="J226" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="K226" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="L226" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="M226" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="N226" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="O226" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="P226" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="Q226" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="R226" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="S226" s="4">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="4">
+        <v>259.0</v>
+      </c>
+      <c r="B227" s="5">
+        <v>45121.5725145687</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H227" s="4">
+        <v>77.0</v>
+      </c>
+      <c r="I227" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="J227" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="K227" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="L227" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="M227" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="N227" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="O227" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="P227" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="Q227" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="R227" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="S227" s="4">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="4">
+        <v>260.0</v>
+      </c>
+      <c r="B228" s="5">
+        <v>45121.6891531486</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H228" s="4">
+        <v>81.0</v>
+      </c>
+      <c r="I228" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="J228" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="K228" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="L228" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="M228" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="N228" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="O228" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="P228" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="Q228" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="R228" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="S228" s="4">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="4">
+        <v>262.0</v>
+      </c>
+      <c r="B229" s="5">
+        <v>45121.7075317832</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="H229" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="I229" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="J229" s="4">
+        <v>71.0</v>
+      </c>
+      <c r="K229" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="L229" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="M229" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="N229" s="4">
+        <v>69.0</v>
+      </c>
+      <c r="O229" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="P229" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="Q229" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="R229" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="S229" s="4">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="4">
+        <v>263.0</v>
+      </c>
+      <c r="B230" s="5">
+        <v>45122.2982046581</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H230" s="4">
+        <v>74.0</v>
+      </c>
+      <c r="I230" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="J230" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="K230" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="L230" s="4">
+        <v>68.0</v>
+      </c>
+      <c r="M230" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="N230" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="O230" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="P230" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="Q230" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="R230" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="S230" s="4">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="4">
+        <v>264.0</v>
+      </c>
+      <c r="B231" s="5">
+        <v>45122.3167290355</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H231" s="4">
+        <v>80.0</v>
+      </c>
+      <c r="I231" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="J231" s="4">
+        <v>76.0</v>
+      </c>
+      <c r="K231" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="L231" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="M231" s="4">
+        <v>76.0</v>
+      </c>
+      <c r="N231" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="O231" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="P231" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="Q231" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="R231" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="S231" s="4">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="4">
+        <v>265.0</v>
+      </c>
+      <c r="B232" s="5">
+        <v>45122.3397163748</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H232" s="4">
+        <v>86.0</v>
+      </c>
+      <c r="I232" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="J232" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="K232" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="L232" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="M232" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="N232" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="O232" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="P232" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="Q232" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="R232" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="S232" s="4">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="4">
+        <v>266.0</v>
+      </c>
+      <c r="B233" s="5">
+        <v>45122.517415167</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H233" s="4">
+        <v>73.0</v>
+      </c>
+      <c r="I233" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="J233" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="K233" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="L233" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="M233" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="N233" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="O233" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="P233" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="Q233" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="R233" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="S233" s="4">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="4">
+        <v>267.0</v>
+      </c>
+      <c r="B234" s="5">
+        <v>45122.6134769143</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G234" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H218" s="4">
+      <c r="H234" s="4">
+        <v>81.0</v>
+      </c>
+      <c r="I234" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="J234" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="K234" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="L234" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="M234" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="N234" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="O234" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="P234" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="Q234" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="R234" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="S234" s="4">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="4">
+        <v>268.0</v>
+      </c>
+      <c r="B235" s="5">
+        <v>45122.6479414645</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="H235" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="I235" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="J235" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="K235" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="L235" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="M235" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="N235" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="O235" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="P235" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="Q235" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="R235" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="S235" s="4">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="4">
+        <v>269.0</v>
+      </c>
+      <c r="B236" s="5">
+        <v>45122.9996321209</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="H236" s="4">
+        <v>74.0</v>
+      </c>
+      <c r="I236" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="J236" s="4">
+        <v>80.0</v>
+      </c>
+      <c r="K236" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="L236" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="M236" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="N236" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="O236" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="P236" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="Q236" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="R236" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="S236" s="4">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="4">
+        <v>270.0</v>
+      </c>
+      <c r="B237" s="5">
+        <v>45123.5288054216</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H237" s="4">
+        <v>76.0</v>
+      </c>
+      <c r="I237" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="J237" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="K237" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="L237" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="M237" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="N237" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="O237" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="P237" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="Q237" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="R237" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="S237" s="4">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="4">
+        <v>271.0</v>
+      </c>
+      <c r="B238" s="5">
+        <v>45123.5967731448</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H238" s="4">
+        <v>77.0</v>
+      </c>
+      <c r="I238" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="J238" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="K238" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="L238" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="M238" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="N238" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="O238" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="P238" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="Q238" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="R238" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="S238" s="4">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="4">
+        <v>272.0</v>
+      </c>
+      <c r="B239" s="5">
+        <v>45123.7213546062</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H239" s="4">
+        <v>93.0</v>
+      </c>
+      <c r="I239" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="J239" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="K239" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="L239" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="M239" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="N239" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="O239" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="P239" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="Q239" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="R239" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="S239" s="4">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="4">
+        <v>273.0</v>
+      </c>
+      <c r="B240" s="5">
+        <v>45124.3162526413</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H240" s="4">
+        <v>79.0</v>
+      </c>
+      <c r="I240" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="J240" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="K240" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="L240" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="M240" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="N240" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="O240" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="P240" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="Q240" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="R240" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="S240" s="4">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="4">
+        <v>274.0</v>
+      </c>
+      <c r="B241" s="5">
+        <v>45124.3998574413</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H241" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="I241" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="J241" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="K241" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="L241" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="M241" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="N241" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="O241" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="P241" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="Q241" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="R241" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="S241" s="4">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="4">
+        <v>275.0</v>
+      </c>
+      <c r="B242" s="5">
+        <v>45124.4610618805</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H242" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="I242" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J242" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="K242" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="L242" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="M242" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="N242" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="O242" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="P242" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="Q242" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="R242" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="S242" s="4">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="4">
+        <v>277.0</v>
+      </c>
+      <c r="B243" s="5">
+        <v>45124.5156113898</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H243" s="4">
+        <v>71.0</v>
+      </c>
+      <c r="I243" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="J243" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="K243" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="L243" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="M243" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="N243" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="O243" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="P243" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="Q243" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="R243" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="S243" s="4">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="4">
+        <v>278.0</v>
+      </c>
+      <c r="B244" s="5">
+        <v>45124.5162584124</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H244" s="4">
+        <v>86.0</v>
+      </c>
+      <c r="I244" s="4">
+        <v>71.0</v>
+      </c>
+      <c r="J244" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="K244" s="4">
+        <v>79.0</v>
+      </c>
+      <c r="L244" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="M244" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="N244" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="O244" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="P244" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="Q244" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="R244" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="S244" s="4">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="4">
+        <v>279.0</v>
+      </c>
+      <c r="B245" s="5">
+        <v>45124.6287160199</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H245" s="4">
+        <v>87.0</v>
+      </c>
+      <c r="I245" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="J245" s="4">
+        <v>68.0</v>
+      </c>
+      <c r="K245" s="4">
+        <v>71.0</v>
+      </c>
+      <c r="L245" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="M245" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="N245" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="O245" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="P245" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="Q245" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="R245" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="S245" s="4">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="4">
+        <v>280.0</v>
+      </c>
+      <c r="B246" s="5">
+        <v>45124.6891094138</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H246" s="4">
+        <v>87.0</v>
+      </c>
+      <c r="I246" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="J246" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="K246" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="L246" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="M246" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="N246" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="O246" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="P246" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="Q246" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="R246" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="S246" s="4">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="4">
+        <v>281.0</v>
+      </c>
+      <c r="B247" s="5">
+        <v>45124.8527992743</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G247" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H247" s="4">
+        <v>83.0</v>
+      </c>
+      <c r="I247" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="J247" s="4">
+        <v>68.0</v>
+      </c>
+      <c r="K247" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="L247" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="M247" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="N247" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="O247" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="P247" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="Q247" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="R247" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="S247" s="4">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="4">
+        <v>282.0</v>
+      </c>
+      <c r="B248" s="5">
+        <v>45124.9429180685</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G248" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H248" s="4">
+        <v>82.0</v>
+      </c>
+      <c r="I248" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="J248" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="K248" s="4">
+        <v>77.0</v>
+      </c>
+      <c r="L248" s="4">
         <v>69.0</v>
       </c>
-      <c r="I218" s="4">
+      <c r="M248" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="N248" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="O248" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="P248" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="Q248" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="R248" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="S248" s="4">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="4">
+        <v>283.0</v>
+      </c>
+      <c r="B249" s="5">
+        <v>45125.298285881</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H249" s="4">
+        <v>87.0</v>
+      </c>
+      <c r="I249" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="J249" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="K249" s="4">
+        <v>71.0</v>
+      </c>
+      <c r="L249" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="M249" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="N249" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="O249" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="P249" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="Q249" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="R249" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="S249" s="4">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="4">
+        <v>284.0</v>
+      </c>
+      <c r="B250" s="5">
+        <v>45125.2992667292</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G250" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H250" s="4">
+        <v>77.0</v>
+      </c>
+      <c r="I250" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="J250" s="4">
+        <v>79.0</v>
+      </c>
+      <c r="K250" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="L250" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="M250" s="4">
+        <v>79.0</v>
+      </c>
+      <c r="N250" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="O250" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="P250" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="Q250" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="R250" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="S250" s="4">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="4">
+        <v>285.0</v>
+      </c>
+      <c r="B251" s="5">
+        <v>45125.3005107203</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H251" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="I251" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="J251" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="K251" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="L251" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="M251" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="N251" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="O251" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="P251" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="Q251" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="R251" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="S251" s="4">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="4">
+        <v>286.0</v>
+      </c>
+      <c r="B252" s="5">
+        <v>45125.305515635</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H252" s="4">
+        <v>82.0</v>
+      </c>
+      <c r="I252" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="J252" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="K252" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="L252" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="M252" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="N252" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="O252" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="P252" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="Q252" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="R252" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="S252" s="4">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="4">
+        <v>287.0</v>
+      </c>
+      <c r="B253" s="5">
+        <v>45125.3075192777</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H253" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="I253" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="J253" s="4">
+        <v>74.0</v>
+      </c>
+      <c r="K253" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="L253" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="M253" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="N253" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="O253" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="P253" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="Q253" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="R253" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="S253" s="4">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="4">
+        <v>288.0</v>
+      </c>
+      <c r="B254" s="5">
+        <v>45125.3135398848</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H254" s="4">
+        <v>77.0</v>
+      </c>
+      <c r="I254" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="J254" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="K254" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="L254" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="M254" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="N254" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="O254" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="P254" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="Q254" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="R254" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="S254" s="4">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="4">
+        <v>289.0</v>
+      </c>
+      <c r="B255" s="5">
+        <v>45125.331115812</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H255" s="4">
+        <v>85.0</v>
+      </c>
+      <c r="I255" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="J255" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="K255" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="L255" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="M255" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="N255" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="O255" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="P255" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="Q255" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="R255" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="S255" s="4">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="4">
+        <v>290.0</v>
+      </c>
+      <c r="B256" s="5">
+        <v>45125.3606077514</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H256" s="4">
+        <v>81.0</v>
+      </c>
+      <c r="I256" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="J256" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="K256" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="L256" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="M256" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="N256" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="O256" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="P256" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="Q256" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="R256" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="S256" s="4">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="4">
+        <v>291.0</v>
+      </c>
+      <c r="B257" s="5">
+        <v>45125.3665474104</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="G257" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H257" s="4">
+        <v>71.0</v>
+      </c>
+      <c r="I257" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="J257" s="4">
+        <v>73.0</v>
+      </c>
+      <c r="K257" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="L257" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="M257" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="N257" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="O257" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="P257" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="Q257" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="R257" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="S257" s="4">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="4">
+        <v>292.0</v>
+      </c>
+      <c r="B258" s="5">
+        <v>45125.3701544585</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="G258" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="H258" s="4">
+        <v>80.0</v>
+      </c>
+      <c r="I258" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="J258" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="K258" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="L258" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="M258" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="N258" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="O258" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="P258" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="Q258" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="R258" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="S258" s="4">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="4">
+        <v>293.0</v>
+      </c>
+      <c r="B259" s="5">
+        <v>45125.4069465136</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H259" s="4">
+        <v>77.0</v>
+      </c>
+      <c r="I259" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="J259" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="K259" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="L259" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="M259" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="N259" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="O259" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="P259" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="Q259" s="4">
         <v>49.0</v>
       </c>
-      <c r="J218" s="4">
+      <c r="R259" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="S259" s="4">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="4">
+        <v>294.0</v>
+      </c>
+      <c r="B260" s="5">
+        <v>45125.4095546826</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G260" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H260" s="4">
+        <v>89.0</v>
+      </c>
+      <c r="I260" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="J260" s="4">
+        <v>83.0</v>
+      </c>
+      <c r="K260" s="4">
+        <v>69.0</v>
+      </c>
+      <c r="L260" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="M260" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="N260" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="O260" s="4">
+        <v>68.0</v>
+      </c>
+      <c r="P260" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="Q260" s="4">
         <v>52.0</v>
       </c>
-      <c r="K218" s="4">
+      <c r="R260" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="S260" s="4">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="4">
+        <v>295.0</v>
+      </c>
+      <c r="B261" s="5">
+        <v>45125.4133668766</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G261" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H261" s="4">
+        <v>82.0</v>
+      </c>
+      <c r="I261" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="J261" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="K261" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="L261" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="M261" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="N261" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="O261" s="4">
         <v>49.0</v>
       </c>
-      <c r="L218" s="4">
+      <c r="P261" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="Q261" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="R261" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="S261" s="4">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="4">
+        <v>296.0</v>
+      </c>
+      <c r="B262" s="5">
+        <v>45125.4947438649</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G262" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H262" s="4">
+        <v>77.0</v>
+      </c>
+      <c r="I262" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="J262" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="K262" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="L262" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="M262" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="N262" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="O262" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="P262" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="Q262" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="R262" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="S262" s="4">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="4">
+        <v>297.0</v>
+      </c>
+      <c r="B263" s="5">
+        <v>45125.5088775687</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H263" s="4">
+        <v>76.0</v>
+      </c>
+      <c r="I263" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="J263" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="K263" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="L263" s="4">
+        <v>69.0</v>
+      </c>
+      <c r="M263" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="N263" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="O263" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="P263" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="Q263" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="R263" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="S263" s="4">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="4">
+        <v>298.0</v>
+      </c>
+      <c r="B264" s="5">
+        <v>45125.5190506281</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="G264" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H264" s="4">
+        <v>82.0</v>
+      </c>
+      <c r="I264" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="J264" s="4">
+        <v>69.0</v>
+      </c>
+      <c r="K264" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="L264" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="M264" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="N264" s="4">
+        <v>71.0</v>
+      </c>
+      <c r="O264" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="P264" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="Q264" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="R264" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="S264" s="4">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="4">
+        <v>299.0</v>
+      </c>
+      <c r="B265" s="5">
+        <v>45125.5794229393</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="G265" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H265" s="4">
+        <v>76.0</v>
+      </c>
+      <c r="I265" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="J265" s="4">
+        <v>68.0</v>
+      </c>
+      <c r="K265" s="4">
+        <v>68.0</v>
+      </c>
+      <c r="L265" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="M265" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="N265" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="O265" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="P265" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="Q265" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="R265" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="S265" s="4">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="4">
+        <v>300.0</v>
+      </c>
+      <c r="B266" s="5">
+        <v>45125.657862436</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H266" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="I266" s="4">
         <v>61.0</v>
       </c>
-      <c r="M218" s="4">
+      <c r="J266" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="K266" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="L266" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="M266" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="N266" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="O266" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="P266" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="Q266" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="R266" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="S266" s="4">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="4">
+        <v>301.0</v>
+      </c>
+      <c r="B267" s="5">
+        <v>45125.6950386249</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="G267" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H267" s="4">
+        <v>78.0</v>
+      </c>
+      <c r="I267" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="J267" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="K267" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="L267" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="M267" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="N267" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="O267" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="P267" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="Q267" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="R267" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="S267" s="4">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="4">
+        <v>302.0</v>
+      </c>
+      <c r="B268" s="5">
+        <v>45125.9201537854</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="G268" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H268" s="4">
+        <v>76.0</v>
+      </c>
+      <c r="I268" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="J268" s="4">
+        <v>79.0</v>
+      </c>
+      <c r="K268" s="4">
+        <v>74.0</v>
+      </c>
+      <c r="L268" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="M268" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="N268" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="O268" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="P268" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="Q268" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="R268" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="S268" s="4">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="4">
+        <v>303.0</v>
+      </c>
+      <c r="B269" s="5">
+        <v>45126.0359807492</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H269" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="I269" s="4">
+        <v>76.0</v>
+      </c>
+      <c r="J269" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="K269" s="4">
         <v>47.0</v>
       </c>
-      <c r="N218" s="4">
+      <c r="L269" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="M269" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="N269" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="O269" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="P269" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="Q269" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="R269" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="S269" s="4">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="4">
+        <v>304.0</v>
+      </c>
+      <c r="B270" s="5">
+        <v>45126.3241842644</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G270" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H270" s="4">
+        <v>76.0</v>
+      </c>
+      <c r="I270" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="J270" s="4">
+        <v>77.0</v>
+      </c>
+      <c r="K270" s="4">
+        <v>71.0</v>
+      </c>
+      <c r="L270" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="M270" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="N270" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="O270" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="P270" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="Q270" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="R270" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="S270" s="4">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="4">
+        <v>305.0</v>
+      </c>
+      <c r="B271" s="5">
+        <v>45126.3584898959</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G271" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H271" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="I271" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="J271" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="K271" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="L271" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="M271" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="N271" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="O271" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="P271" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="Q271" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="R271" s="4">
+        <v>73.0</v>
+      </c>
+      <c r="S271" s="4">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="4">
+        <v>306.0</v>
+      </c>
+      <c r="B272" s="5">
+        <v>45126.3759295009</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H272" s="4">
+        <v>79.0</v>
+      </c>
+      <c r="I272" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="J272" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="K272" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="L272" s="4">
+        <v>68.0</v>
+      </c>
+      <c r="M272" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N272" s="4">
         <v>54.0</v>
       </c>
-      <c r="O218" s="4">
-        <v>29.0</v>
-      </c>
-      <c r="P218" s="4">
+      <c r="O272" s="4">
+        <v>86.0</v>
+      </c>
+      <c r="P272" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="Q272" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="R272" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="S272" s="4">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="4">
+        <v>307.0</v>
+      </c>
+      <c r="B273" s="5">
+        <v>45126.3924157434</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H273" s="4">
+        <v>76.0</v>
+      </c>
+      <c r="I273" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="J273" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="K273" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="L273" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="M273" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="N273" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="O273" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="P273" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="Q273" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="R273" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="S273" s="4">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="4">
+        <v>308.0</v>
+      </c>
+      <c r="B274" s="5">
+        <v>45126.4392018451</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="G274" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H274" s="4">
+        <v>80.0</v>
+      </c>
+      <c r="I274" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="J274" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="K274" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="L274" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="M274" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="N274" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="O274" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="P274" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="Q274" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="R274" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="S274" s="4">
         <v>30.0</v>
       </c>
-      <c r="Q218" s="4">
+    </row>
+    <row r="275">
+      <c r="A275" s="4">
+        <v>309.0</v>
+      </c>
+      <c r="B275" s="5">
+        <v>45126.4401395418</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="G275" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H275" s="4">
+        <v>78.0</v>
+      </c>
+      <c r="I275" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="J275" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="K275" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="L275" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="M275" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="N275" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="O275" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="P275" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="Q275" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="R275" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="S275" s="4">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="4">
+        <v>310.0</v>
+      </c>
+      <c r="B276" s="5">
+        <v>45126.4656357239</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H276" s="4">
+        <v>79.0</v>
+      </c>
+      <c r="I276" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="J276" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="K276" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="L276" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="M276" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="N276" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="O276" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="P276" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="Q276" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="R276" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="S276" s="4">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="4">
+        <v>311.0</v>
+      </c>
+      <c r="B277" s="5">
+        <v>45126.4667014562</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G277" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="H277" s="4">
+        <v>80.0</v>
+      </c>
+      <c r="I277" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="J277" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="K277" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="L277" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="M277" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="N277" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="O277" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="P277" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="Q277" s="4">
+        <v>97.0</v>
+      </c>
+      <c r="R277" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="S277" s="4">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="4">
+        <v>313.0</v>
+      </c>
+      <c r="B278" s="5">
+        <v>45126.4850084038</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H278" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="I278" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="J278" s="4">
+        <v>68.0</v>
+      </c>
+      <c r="K278" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="L278" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="M278" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="N278" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="O278" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="P278" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="Q278" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="R278" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="S278" s="4">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="4">
+        <v>315.0</v>
+      </c>
+      <c r="B279" s="5">
+        <v>45126.5569645858</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="F279" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="G279" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="H279" s="4">
+        <v>83.0</v>
+      </c>
+      <c r="I279" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="J279" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="K279" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="L279" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="M279" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="N279" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="O279" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="P279" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="Q279" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="R279" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="S279" s="4">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="4">
+        <v>316.0</v>
+      </c>
+      <c r="B280" s="5">
+        <v>45126.5777217768</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H280" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="I280" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="J280" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="K280" s="4">
+        <v>69.0</v>
+      </c>
+      <c r="L280" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="M280" s="4">
+        <v>71.0</v>
+      </c>
+      <c r="N280" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="O280" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="P280" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="Q280" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="R280" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="S280" s="4">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="4">
+        <v>317.0</v>
+      </c>
+      <c r="B281" s="5">
+        <v>45126.5822596692</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="F281" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G281" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H281" s="4">
+        <v>73.0</v>
+      </c>
+      <c r="I281" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="J281" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="K281" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="L281" s="4">
+        <v>81.0</v>
+      </c>
+      <c r="M281" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="N281" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="O281" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="P281" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="Q281" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="R281" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="S281" s="4">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="4">
+        <v>318.0</v>
+      </c>
+      <c r="B282" s="5">
+        <v>45126.6370762405</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="F282" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H282" s="4">
+        <v>90.0</v>
+      </c>
+      <c r="I282" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="J282" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="K282" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="L282" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="M282" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="N282" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="O282" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="P282" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="Q282" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="R282" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="S282" s="4">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="4">
+        <v>319.0</v>
+      </c>
+      <c r="B283" s="5">
+        <v>45126.7525186675</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="F283" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H283" s="4">
+        <v>77.0</v>
+      </c>
+      <c r="I283" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="J283" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="K283" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="L283" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="M283" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="N283" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="O283" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="P283" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="Q283" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="R283" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="S283" s="4">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="4">
+        <v>320.0</v>
+      </c>
+      <c r="B284" s="5">
+        <v>45126.7933846714</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="F284" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="H284" s="4">
+        <v>80.0</v>
+      </c>
+      <c r="I284" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="J284" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="K284" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="L284" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="M284" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="N284" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="O284" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="P284" s="4">
         <v>39.0</v>
       </c>
-      <c r="R218" s="4">
-        <v>22.0</v>
-      </c>
-      <c r="S218" s="4">
-        <v>23.0</v>
+      <c r="Q284" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="R284" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="S284" s="4">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="4">
+        <v>321.0</v>
+      </c>
+      <c r="B285" s="5">
+        <v>45127.2980262775</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="E285" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="F285" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="G285" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H285" s="4">
+        <v>78.0</v>
+      </c>
+      <c r="I285" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="J285" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="K285" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="L285" s="4">
+        <v>68.0</v>
+      </c>
+      <c r="M285" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="N285" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="O285" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="P285" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="Q285" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="R285" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="S285" s="4">
+        <v>40.0</v>
       </c>
     </row>
   </sheetData>
